--- a/results/mp/deberta/corona/confidence/84/stop-words-0.1/avg_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-0.1/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1691" uniqueCount="1472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="1472">
   <si>
     <t>anchor score</t>
   </si>
@@ -409,880 +409,880 @@
     <t>died</t>
   </si>
   <si>
+    <t>purpose</t>
+  </si>
+  <si>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>ads</t>
+  </si>
+  <si>
+    <t>released</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>allow</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>pledge</t>
+  </si>
+  <si>
+    <t>worry</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>insights</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>expert</t>
+  </si>
+  <si>
+    <t>course</t>
+  </si>
+  <si>
+    <t>limited</t>
+  </si>
+  <si>
+    <t>options</t>
+  </si>
+  <si>
+    <t>complaint</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>struggle</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>surprise</t>
+  </si>
+  <si>
+    <t>guidance</t>
+  </si>
+  <si>
+    <t>child</t>
+  </si>
+  <si>
+    <t>hits</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>shock</t>
+  </si>
+  <si>
+    <t>lady</t>
+  </si>
+  <si>
+    <t>chicken</t>
+  </si>
+  <si>
+    <t>app</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>entire</t>
+  </si>
+  <si>
+    <t>delayed</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>avoiding</t>
+  </si>
+  <si>
+    <t>warned</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>toronto</t>
+  </si>
+  <si>
+    <t>details</t>
+  </si>
+  <si>
+    <t>suppliers</t>
+  </si>
+  <si>
+    <t>agriculture</t>
+  </si>
+  <si>
+    <t>temporary</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>card</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>washington</t>
+  </si>
+  <si>
+    <t>fda</t>
+  </si>
+  <si>
+    <t>donations</t>
+  </si>
+  <si>
+    <t>trading</t>
+  </si>
+  <si>
+    <t>worldwide</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>pa</t>
+  </si>
+  <si>
+    <t>sense</t>
+  </si>
+  <si>
+    <t>struggling</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>affected</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>mortgage</t>
+  </si>
+  <si>
+    <t>household</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>offering</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>asked</t>
+  </si>
+  <si>
+    <t>listen</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>farm</t>
+  </si>
+  <si>
+    <t>watching</t>
+  </si>
+  <si>
+    <t>looks</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>cause</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>whole</t>
+  </si>
+  <si>
+    <t>rt</t>
+  </si>
+  <si>
+    <t>sentiment</t>
+  </si>
+  <si>
+    <t>sunday</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>cure</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>side</t>
+  </si>
+  <si>
+    <t>tests</t>
+  </si>
+  <si>
+    <t>customer</t>
+  </si>
+  <si>
+    <t>especially</t>
+  </si>
+  <si>
+    <t>stimulus</t>
+  </si>
+  <si>
+    <t>epidemic</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>putting</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>told</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>wearing</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>america</t>
+  </si>
+  <si>
+    <t>outside</t>
+  </si>
+  <si>
+    <t>worried</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>woman</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>retailers</t>
+  </si>
+  <si>
+    <t>meat</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>protection</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>front</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>gloves</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>companies</t>
+  </si>
+  <si>
+    <t>says</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>products</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>dona</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>world</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>popular</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>appreciated</t>
+  </si>
+  <si>
+    <t>bless</t>
+  </si>
+  <si>
+    <t>bonus</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>winning</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>smile</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>safely</t>
+  </si>
+  <si>
+    <t>grateful</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>appreciation</t>
+  </si>
+  <si>
+    <t>surely</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>honest</t>
+  </si>
+  <si>
+    <t>hilarious</t>
+  </si>
+  <si>
+    <t>favorite</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>safer</t>
+  </si>
+  <si>
+    <t>opportunity</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>benefits</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>instant</t>
+  </si>
+  <si>
+    <t>valuable</t>
+  </si>
+  <si>
+    <t>luxury</t>
+  </si>
+  <si>
+    <t>initiative</t>
+  </si>
+  <si>
+    <t>encouraging</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>episode</t>
+  </si>
+  <si>
+    <t>humor</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>supporting</t>
+  </si>
+  <si>
+    <t>likes</t>
+  </si>
+  <si>
+    <t>proud</t>
+  </si>
+  <si>
+    <t>highlight</t>
+  </si>
+  <si>
+    <t>respect</t>
+  </si>
+  <si>
+    <t>updated</t>
+  </si>
+  <si>
+    <t>cute</t>
+  </si>
+  <si>
+    <t>universal</t>
+  </si>
+  <si>
+    <t>innovation</t>
+  </si>
+  <si>
+    <t>cool</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>purpose</t>
-  </si>
-  <si>
-    <t>minutes</t>
-  </si>
-  <si>
-    <t>ads</t>
-  </si>
-  <si>
-    <t>released</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>allow</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>pledge</t>
-  </si>
-  <si>
-    <t>worry</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>insights</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>expert</t>
-  </si>
-  <si>
-    <t>course</t>
-  </si>
-  <si>
-    <t>limited</t>
-  </si>
-  <si>
-    <t>options</t>
-  </si>
-  <si>
-    <t>complaint</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>struggle</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>surprise</t>
-  </si>
-  <si>
-    <t>guidance</t>
-  </si>
-  <si>
-    <t>child</t>
-  </si>
-  <si>
-    <t>hits</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>holiday</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>shock</t>
-  </si>
-  <si>
-    <t>lady</t>
-  </si>
-  <si>
-    <t>chicken</t>
-  </si>
-  <si>
-    <t>app</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>entire</t>
-  </si>
-  <si>
-    <t>delayed</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>avoiding</t>
-  </si>
-  <si>
-    <t>warned</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>tech</t>
-  </si>
-  <si>
-    <t>toronto</t>
-  </si>
-  <si>
-    <t>details</t>
-  </si>
-  <si>
-    <t>suppliers</t>
-  </si>
-  <si>
-    <t>agriculture</t>
-  </si>
-  <si>
-    <t>temporary</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>deliver</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>card</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>washington</t>
-  </si>
-  <si>
-    <t>fda</t>
+    <t>dow</t>
+  </si>
+  <si>
+    <t>trust</t>
+  </si>
+  <si>
+    <t>useful</t>
+  </si>
+  <si>
+    <t>thankful</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>music</t>
+  </si>
+  <si>
+    <t>wise</t>
+  </si>
+  <si>
+    <t>encourage</t>
+  </si>
+  <si>
+    <t>brave</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>helps</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>effective</t>
+  </si>
+  <si>
+    <t>resource</t>
+  </si>
+  <si>
+    <t>puzzle</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>homemade</t>
+  </si>
+  <si>
+    <t>tool</t>
+  </si>
+  <si>
+    <t>comedy</t>
+  </si>
+  <si>
+    <t>truly</t>
+  </si>
+  <si>
+    <t>donation</t>
+  </si>
+  <si>
+    <t>smart</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>shares</t>
+  </si>
+  <si>
+    <t>funny</t>
   </si>
   <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>donations</t>
-  </si>
-  <si>
-    <t>trading</t>
-  </si>
-  <si>
-    <t>worldwide</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>pa</t>
-  </si>
-  <si>
-    <t>sense</t>
-  </si>
-  <si>
-    <t>struggling</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>affected</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>debt</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>mortgage</t>
-  </si>
-  <si>
-    <t>household</t>
-  </si>
-  <si>
-    <t>cc</t>
-  </si>
-  <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>offering</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>asked</t>
-  </si>
-  <si>
-    <t>listen</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>experience</t>
-  </si>
-  <si>
-    <t>farm</t>
-  </si>
-  <si>
-    <t>watching</t>
-  </si>
-  <si>
-    <t>looks</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>cause</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>whole</t>
-  </si>
-  <si>
-    <t>rt</t>
-  </si>
-  <si>
-    <t>sentiment</t>
-  </si>
-  <si>
-    <t>sunday</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>cure</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>side</t>
-  </si>
-  <si>
-    <t>tests</t>
-  </si>
-  <si>
-    <t>customer</t>
-  </si>
-  <si>
-    <t>especially</t>
-  </si>
-  <si>
-    <t>stimulus</t>
-  </si>
-  <si>
-    <t>epidemic</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>putting</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>told</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>wearing</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>america</t>
-  </si>
-  <si>
-    <t>outside</t>
-  </si>
-  <si>
-    <t>worried</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>woman</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>retailers</t>
-  </si>
-  <si>
-    <t>meat</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>protection</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>front</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>gloves</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>companies</t>
-  </si>
-  <si>
-    <t>says</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>products</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>dona</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>world</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>buying</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>popular</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>appreciated</t>
-  </si>
-  <si>
-    <t>bless</t>
-  </si>
-  <si>
-    <t>bonus</t>
-  </si>
-  <si>
-    <t>beauty</t>
-  </si>
-  <si>
-    <t>winning</t>
-  </si>
-  <si>
-    <t>fantastic</t>
-  </si>
-  <si>
-    <t>smile</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>safely</t>
-  </si>
-  <si>
-    <t>grateful</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>appreciation</t>
-  </si>
-  <si>
-    <t>surely</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>honest</t>
-  </si>
-  <si>
-    <t>hilarious</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>safer</t>
-  </si>
-  <si>
-    <t>opportunity</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>benefits</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>instant</t>
-  </si>
-  <si>
-    <t>valuable</t>
-  </si>
-  <si>
-    <t>luxury</t>
-  </si>
-  <si>
-    <t>initiative</t>
-  </si>
-  <si>
-    <t>encouraging</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>episode</t>
-  </si>
-  <si>
-    <t>humor</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>supporting</t>
-  </si>
-  <si>
-    <t>likes</t>
-  </si>
-  <si>
-    <t>proud</t>
-  </si>
-  <si>
-    <t>highlight</t>
-  </si>
-  <si>
-    <t>respect</t>
-  </si>
-  <si>
-    <t>updated</t>
-  </si>
-  <si>
-    <t>cute</t>
-  </si>
-  <si>
-    <t>universal</t>
-  </si>
-  <si>
-    <t>innovation</t>
-  </si>
-  <si>
-    <t>cool</t>
-  </si>
-  <si>
-    <t>dow</t>
-  </si>
-  <si>
-    <t>trust</t>
-  </si>
-  <si>
-    <t>useful</t>
-  </si>
-  <si>
-    <t>thankful</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>music</t>
-  </si>
-  <si>
-    <t>wise</t>
-  </si>
-  <si>
-    <t>encourage</t>
-  </si>
-  <si>
-    <t>brave</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>helps</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>effective</t>
-  </si>
-  <si>
-    <t>resource</t>
-  </si>
-  <si>
-    <t>puzzle</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>homemade</t>
-  </si>
-  <si>
-    <t>tool</t>
-  </si>
-  <si>
-    <t>comedy</t>
-  </si>
-  <si>
-    <t>truly</t>
-  </si>
-  <si>
-    <t>donation</t>
-  </si>
-  <si>
-    <t>smart</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>shares</t>
-  </si>
-  <si>
-    <t>funny</t>
   </si>
   <si>
     <t>relief</t>
@@ -4795,10 +4795,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="J1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -4877,7 +4877,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -4927,7 +4927,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -4977,7 +4977,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -5027,7 +5027,7 @@
         <v>2</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -5077,7 +5077,7 @@
         <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -5127,7 +5127,7 @@
         <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -5227,7 +5227,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -5277,7 +5277,7 @@
         <v>10</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -5327,7 +5327,7 @@
         <v>4</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -5427,7 +5427,7 @@
         <v>7</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K14">
         <v>0.9615384615384616</v>
@@ -5527,7 +5527,7 @@
         <v>5</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="K16">
         <v>0.9322033898305084</v>
@@ -5577,7 +5577,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K17">
         <v>0.9230769230769231</v>
@@ -5727,7 +5727,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="K20">
         <v>0.9090909090909091</v>
@@ -5777,7 +5777,7 @@
         <v>1</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="K21">
         <v>0.9</v>
@@ -5827,7 +5827,7 @@
         <v>160</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="K22">
         <v>0.8947368421052632</v>
@@ -5927,7 +5927,7 @@
         <v>4</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="K24">
         <v>0.875</v>
@@ -5977,7 +5977,7 @@
         <v>4</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="K25">
         <v>0.875</v>
@@ -6177,7 +6177,7 @@
         <v>3</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K29">
         <v>0.8545454545454545</v>
@@ -6227,7 +6227,7 @@
         <v>5</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K30">
         <v>0.8503937007874016</v>
@@ -6277,7 +6277,7 @@
         <v>5</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="K31">
         <v>0.8461538461538461</v>
@@ -6427,7 +6427,7 @@
         <v>4</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="K34">
         <v>0.8333333333333334</v>
@@ -6477,7 +6477,7 @@
         <v>4</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="K35">
         <v>0.8333333333333334</v>
@@ -6577,7 +6577,7 @@
         <v>2</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="K37">
         <v>0.8181818181818182</v>
@@ -6627,7 +6627,7 @@
         <v>4</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K38">
         <v>0.8</v>
@@ -6727,7 +6727,7 @@
         <v>2</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="K40">
         <v>0.8</v>
@@ -6777,7 +6777,7 @@
         <v>2</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="K41">
         <v>0.7936507936507936</v>
@@ -6827,7 +6827,7 @@
         <v>4</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K42">
         <v>0.7777777777777778</v>
@@ -6877,7 +6877,7 @@
         <v>4</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K43">
         <v>0.7777777777777778</v>
@@ -6977,7 +6977,7 @@
         <v>7</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K45">
         <v>0.7531645569620253</v>
@@ -7027,7 +7027,7 @@
         <v>5</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="K46">
         <v>0.75</v>
@@ -7077,7 +7077,7 @@
         <v>5</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="K47">
         <v>0.7333333333333333</v>
@@ -7127,7 +7127,7 @@
         <v>5</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="K48">
         <v>0.7333333333333333</v>
@@ -7277,7 +7277,7 @@
         <v>14</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="K51">
         <v>0.7272727272727273</v>
@@ -7327,7 +7327,7 @@
         <v>3</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K52">
         <v>0.7192982456140351</v>
@@ -7427,7 +7427,7 @@
         <v>3</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K54">
         <v>0.7142857142857143</v>
@@ -7477,7 +7477,7 @@
         <v>3</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="K55">
         <v>0.7142857142857143</v>
@@ -7527,7 +7527,7 @@
         <v>3</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="K56">
         <v>0.7142857142857143</v>
@@ -7577,7 +7577,7 @@
         <v>6</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="K57">
         <v>0.7</v>
@@ -7677,7 +7677,7 @@
         <v>3</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="K59">
         <v>0.7</v>
@@ -7777,28 +7777,28 @@
         <v>3</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>131</v>
+        <v>380</v>
       </c>
       <c r="K61">
-        <v>0.6869565217391305</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L61">
-        <v>158</v>
+        <v>19</v>
       </c>
       <c r="M61">
-        <v>167</v>
+        <v>19</v>
       </c>
       <c r="N61">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O61">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>72</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:17">
@@ -7827,16 +7827,16 @@
         <v>3</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K62">
-        <v>0.6785714285714286</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L62">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="M62">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -7848,7 +7848,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:17">
@@ -7877,7 +7877,7 @@
         <v>12</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>383</v>
+        <v>59</v>
       </c>
       <c r="K63">
         <v>0.6666666666666666</v>
@@ -7886,16 +7886,16 @@
         <v>6</v>
       </c>
       <c r="M63">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N63">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="O63">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="P63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -7927,28 +7927,28 @@
         <v>19</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>59</v>
+        <v>382</v>
       </c>
       <c r="K64">
         <v>0.6666666666666666</v>
       </c>
       <c r="L64">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M64">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N64">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="O64">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="P64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:17">
@@ -7977,16 +7977,16 @@
         <v>24</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K65">
         <v>0.6666666666666666</v>
       </c>
       <c r="L65">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="M65">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -7998,7 +7998,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:17">
@@ -8027,16 +8027,16 @@
         <v>7</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K66">
         <v>0.6666666666666666</v>
       </c>
       <c r="L66">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="M66">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -8048,7 +8048,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:17">
@@ -8077,16 +8077,16 @@
         <v>59</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K67">
         <v>0.6666666666666666</v>
       </c>
       <c r="L67">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M67">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -8098,7 +8098,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:17">
@@ -8127,16 +8127,16 @@
         <v>16</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K68">
         <v>0.6666666666666666</v>
       </c>
       <c r="L68">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M68">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -8148,7 +8148,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:17">
@@ -8177,28 +8177,28 @@
         <v>4</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>388</v>
+        <v>46</v>
       </c>
       <c r="K69">
         <v>0.6666666666666666</v>
       </c>
       <c r="L69">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M69">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N69">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="O69">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="P69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q69">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:17">
@@ -8227,7 +8227,7 @@
         <v>4</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>46</v>
+        <v>387</v>
       </c>
       <c r="K70">
         <v>0.6666666666666666</v>
@@ -8236,16 +8236,16 @@
         <v>4</v>
       </c>
       <c r="M70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N70">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="O70">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="P70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70">
         <v>2</v>
@@ -8277,28 +8277,28 @@
         <v>4</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K71">
         <v>0.6666666666666666</v>
       </c>
       <c r="L71">
+        <v>8</v>
+      </c>
+      <c r="M71">
+        <v>8</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q71">
         <v>4</v>
-      </c>
-      <c r="M71">
-        <v>4</v>
-      </c>
-      <c r="N71">
-        <v>1</v>
-      </c>
-      <c r="O71">
-        <v>0</v>
-      </c>
-      <c r="P71" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q71">
-        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:17">
@@ -8327,16 +8327,16 @@
         <v>4</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K72">
         <v>0.6666666666666666</v>
       </c>
       <c r="L72">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M72">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -8348,7 +8348,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:17">
@@ -8377,16 +8377,16 @@
         <v>4</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K73">
         <v>0.6666666666666666</v>
       </c>
       <c r="L73">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M73">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -8398,7 +8398,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:17">
@@ -8427,7 +8427,7 @@
         <v>4</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K74">
         <v>0.6666666666666666</v>
@@ -8477,7 +8477,7 @@
         <v>9</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K75">
         <v>0.6666666666666666</v>
@@ -8527,7 +8527,7 @@
         <v>9</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K76">
         <v>0.6666666666666666</v>
@@ -8577,28 +8577,28 @@
         <v>10</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>395</v>
+        <v>67</v>
       </c>
       <c r="K77">
         <v>0.6666666666666666</v>
       </c>
       <c r="L77">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M77">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N77">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="O77">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="P77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q77">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:17">
@@ -8627,28 +8627,28 @@
         <v>5</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>67</v>
+        <v>394</v>
       </c>
       <c r="K78">
-        <v>0.6666666666666666</v>
+        <v>0.6610878661087866</v>
       </c>
       <c r="L78">
-        <v>6</v>
+        <v>158</v>
       </c>
       <c r="M78">
-        <v>7</v>
+        <v>158</v>
       </c>
       <c r="N78">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="O78">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="P78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q78">
-        <v>3</v>
+        <v>81</v>
       </c>
     </row>
     <row r="79" spans="1:17">
@@ -8677,7 +8677,7 @@
         <v>5</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K79">
         <v>0.6521739130434783</v>
@@ -8727,7 +8727,7 @@
         <v>5</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K80">
         <v>0.6373626373626373</v>
@@ -8777,7 +8777,7 @@
         <v>5</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="K81">
         <v>0.6363636363636364</v>
@@ -8827,7 +8827,7 @@
         <v>5</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K82">
         <v>0.6363636363636364</v>
@@ -8877,7 +8877,7 @@
         <v>5</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K83">
         <v>0.6363636363636364</v>
@@ -8927,7 +8927,7 @@
         <v>5</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K84">
         <v>0.625</v>
@@ -8977,7 +8977,7 @@
         <v>5</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="K85">
         <v>0.625</v>
@@ -9027,7 +9027,7 @@
         <v>5</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K86">
         <v>0.625</v>
@@ -9077,7 +9077,7 @@
         <v>5</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="K87">
         <v>0.625</v>
@@ -9127,7 +9127,7 @@
         <v>5</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K88">
         <v>0.625</v>
@@ -9177,7 +9177,7 @@
         <v>5</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K89">
         <v>0.625</v>
@@ -9227,7 +9227,7 @@
         <v>5</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K90">
         <v>0.6170212765957447</v>
@@ -9277,7 +9277,7 @@
         <v>5</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K91">
         <v>0.6153846153846154</v>
@@ -9327,7 +9327,7 @@
         <v>5</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K92">
         <v>0.6153846153846154</v>
@@ -9427,7 +9427,7 @@
         <v>11</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="K94">
         <v>0.6056338028169014</v>
@@ -9527,7 +9527,7 @@
         <v>29</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K96">
         <v>0.6</v>
@@ -9627,7 +9627,7 @@
         <v>6</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K98">
         <v>0.6</v>
@@ -9677,7 +9677,7 @@
         <v>6</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K99">
         <v>0.6</v>
@@ -9777,7 +9777,7 @@
         <v>6</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K101">
         <v>0.6</v>
@@ -9827,7 +9827,7 @@
         <v>6</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="K102">
         <v>0.5882352941176471</v>
@@ -9877,7 +9877,7 @@
         <v>6</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="K103">
         <v>0.5714285714285714</v>
@@ -9927,7 +9927,7 @@
         <v>6</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="K104">
         <v>0.5714285714285714</v>
@@ -9977,7 +9977,7 @@
         <v>24</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="K105">
         <v>0.5714285714285714</v>
@@ -10027,7 +10027,7 @@
         <v>6</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="K106">
         <v>0.5714285714285714</v>
@@ -10077,7 +10077,7 @@
         <v>6</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K107">
         <v>0.5714285714285714</v>
@@ -10127,7 +10127,7 @@
         <v>12</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K108">
         <v>0.5714285714285714</v>
@@ -10177,7 +10177,7 @@
         <v>6</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K109">
         <v>0.5625</v>
@@ -10227,28 +10227,28 @@
         <v>6</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>192</v>
+        <v>420</v>
       </c>
       <c r="K110">
-        <v>0.5319148936170213</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="L110">
-        <v>175</v>
+        <v>11</v>
       </c>
       <c r="M110">
-        <v>186</v>
+        <v>11</v>
       </c>
       <c r="N110">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O110">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q110">
-        <v>154</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111" spans="1:17">
@@ -10280,25 +10280,25 @@
         <v>421</v>
       </c>
       <c r="K111">
-        <v>0.5238095238095238</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="L111">
+        <v>12</v>
+      </c>
+      <c r="M111">
+        <v>12</v>
+      </c>
+      <c r="N111">
+        <v>1</v>
+      </c>
+      <c r="O111">
+        <v>0</v>
+      </c>
+      <c r="P111" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q111">
         <v>11</v>
-      </c>
-      <c r="M111">
-        <v>11</v>
-      </c>
-      <c r="N111">
-        <v>1</v>
-      </c>
-      <c r="O111">
-        <v>0</v>
-      </c>
-      <c r="P111" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q111">
-        <v>10</v>
       </c>
     </row>
     <row r="112" spans="1:17">
@@ -10327,7 +10327,7 @@
         <v>13</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>422</v>
+        <v>167</v>
       </c>
       <c r="K112">
         <v>0.5217391304347826</v>
@@ -10336,16 +10336,16 @@
         <v>12</v>
       </c>
       <c r="M112">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N112">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O112">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q112">
         <v>11</v>
@@ -10377,28 +10377,28 @@
         <v>21</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>168</v>
+        <v>422</v>
       </c>
       <c r="K113">
-        <v>0.5217391304347826</v>
+        <v>0.5147058823529411</v>
       </c>
       <c r="L113">
-        <v>12</v>
+        <v>175</v>
       </c>
       <c r="M113">
-        <v>13</v>
+        <v>175</v>
       </c>
       <c r="N113">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O113">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q113">
-        <v>11</v>
+        <v>165</v>
       </c>
     </row>
     <row r="114" spans="1:17">
@@ -10627,7 +10627,7 @@
         <v>7</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K118">
         <v>0.5</v>
@@ -10927,7 +10927,7 @@
         <v>23</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K124">
         <v>0.5</v>
@@ -11009,22 +11009,22 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="C126">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D126">
-        <v>167</v>
+        <v>1</v>
       </c>
       <c r="E126">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F126">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H126">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>60</v>
@@ -11162,16 +11162,16 @@
         <v>1</v>
       </c>
       <c r="D129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F129">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H129">
         <v>8</v>
@@ -11209,22 +11209,22 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="C130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D130">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E130">
-        <v>0.5</v>
+        <v>0.89</v>
       </c>
       <c r="F130">
-        <v>0.5</v>
+        <v>0.11</v>
       </c>
       <c r="G130" t="b">
         <v>1</v>
       </c>
       <c r="H130">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>436</v>
@@ -11262,13 +11262,13 @@
         <v>2</v>
       </c>
       <c r="D131">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="E131">
-        <v>0.89</v>
+        <v>0.98</v>
       </c>
       <c r="F131">
-        <v>0.11</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G131" t="b">
         <v>1</v>
@@ -11309,22 +11309,22 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="C132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D132">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="E132">
-        <v>0.98</v>
+        <v>0.86</v>
       </c>
       <c r="F132">
-        <v>0.02000000000000002</v>
+        <v>0.14</v>
       </c>
       <c r="G132" t="b">
         <v>1</v>
       </c>
       <c r="H132">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>438</v>
@@ -11359,22 +11359,22 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="C133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D133">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="E133">
-        <v>0.86</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F133">
-        <v>0.14</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G133" t="b">
         <v>1</v>
       </c>
       <c r="H133">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>23</v>
@@ -11412,13 +11412,13 @@
         <v>2</v>
       </c>
       <c r="D134">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="E134">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F134">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G134" t="b">
         <v>1</v>
@@ -11459,22 +11459,22 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="C135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D135">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="E135">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F135">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H135">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>440</v>
@@ -11509,10 +11509,10 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="C136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -11524,7 +11524,7 @@
         <v>0</v>
       </c>
       <c r="H136">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>441</v>
@@ -11556,25 +11556,25 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.1111111111111111</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="C137">
         <v>2</v>
       </c>
       <c r="D137">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="F137">
-        <v>1</v>
+        <v>0.22</v>
       </c>
       <c r="G137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H137">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>442</v>
@@ -11612,13 +11612,13 @@
         <v>2</v>
       </c>
       <c r="D138">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E138">
-        <v>0.78</v>
+        <v>0.83</v>
       </c>
       <c r="F138">
-        <v>0.22</v>
+        <v>0.17</v>
       </c>
       <c r="G138" t="b">
         <v>1</v>
@@ -11662,13 +11662,13 @@
         <v>2</v>
       </c>
       <c r="D139">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E139">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="F139">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="G139" t="b">
         <v>1</v>
@@ -11706,28 +11706,28 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.1052631578947368</v>
+        <v>0.1</v>
       </c>
       <c r="C140">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D140">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E140">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F140">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H140">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K140">
         <v>0.4871794871794872</v>
@@ -11759,10 +11759,10 @@
         <v>0.1</v>
       </c>
       <c r="C141">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D141">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E141">
         <v>0</v>
@@ -11774,7 +11774,7 @@
         <v>0</v>
       </c>
       <c r="H141">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>445</v>
@@ -11812,16 +11812,16 @@
         <v>1</v>
       </c>
       <c r="D142">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F142">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H142">
         <v>9</v>
@@ -11859,22 +11859,22 @@
         <v>0.1</v>
       </c>
       <c r="C143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D143">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E143">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F143">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H143">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>107</v>
@@ -11909,22 +11909,22 @@
         <v>0.1</v>
       </c>
       <c r="C144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D144">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F144">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H144">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>447</v>
@@ -11962,16 +11962,16 @@
         <v>1</v>
       </c>
       <c r="D145">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E145">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F145">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H145">
         <v>9</v>
@@ -12006,13 +12006,13 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.1</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="C146">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D146">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E146">
         <v>0</v>
@@ -12024,7 +12024,7 @@
         <v>0</v>
       </c>
       <c r="H146">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>449</v>
@@ -12056,13 +12056,13 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.09677419354838709</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C147">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D147">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E147">
         <v>0</v>
@@ -12074,7 +12074,7 @@
         <v>0</v>
       </c>
       <c r="H147">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>450</v>
@@ -12112,16 +12112,16 @@
         <v>1</v>
       </c>
       <c r="D148">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F148">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H148">
         <v>10</v>
@@ -12162,22 +12162,22 @@
         <v>1</v>
       </c>
       <c r="D149">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E149">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F149">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H149">
         <v>10</v>
       </c>
       <c r="J149" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K149">
         <v>0.4444444444444444</v>
@@ -12212,16 +12212,16 @@
         <v>1</v>
       </c>
       <c r="D150">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E150">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F150">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H150">
         <v>10</v>
@@ -12262,13 +12262,13 @@
         <v>1</v>
       </c>
       <c r="D151">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E151">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="F151">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="G151" t="b">
         <v>1</v>
@@ -12277,7 +12277,7 @@
         <v>10</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K151">
         <v>0.4431818181818182</v>
@@ -12312,22 +12312,22 @@
         <v>1</v>
       </c>
       <c r="D152">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E152">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F152">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H152">
         <v>10</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K152">
         <v>0.4390243902439024</v>
@@ -12462,22 +12462,22 @@
         <v>1</v>
       </c>
       <c r="D155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F155">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H155">
         <v>10</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K155">
         <v>0.4328358208955224</v>
@@ -12506,28 +12506,28 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.09090909090909091</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="C156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D156">
         <v>2</v>
       </c>
       <c r="E156">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F156">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H156">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="J156" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K156">
         <v>0.4304461942257218</v>
@@ -12556,13 +12556,13 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.08695652173913043</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E157">
         <v>0</v>
@@ -12574,7 +12574,7 @@
         <v>0</v>
       </c>
       <c r="H157">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>455</v>
@@ -12662,22 +12662,22 @@
         <v>1</v>
       </c>
       <c r="D159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F159">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H159">
         <v>11</v>
       </c>
       <c r="J159" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K159">
         <v>0.4285714285714285</v>
@@ -12712,13 +12712,13 @@
         <v>1</v>
       </c>
       <c r="D160">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E160">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="F160">
-        <v>0.5</v>
+        <v>0.14</v>
       </c>
       <c r="G160" t="b">
         <v>1</v>
@@ -12753,7 +12753,7 @@
     </row>
     <row r="161" spans="1:17">
       <c r="A161" s="1" t="s">
-        <v>166</v>
+        <v>7</v>
       </c>
       <c r="B161">
         <v>0.08333333333333333</v>
@@ -12762,13 +12762,13 @@
         <v>1</v>
       </c>
       <c r="D161">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E161">
-        <v>0.86</v>
+        <v>0.5</v>
       </c>
       <c r="F161">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="G161" t="b">
         <v>1</v>
@@ -12803,28 +12803,28 @@
     </row>
     <row r="162" spans="1:17">
       <c r="A162" s="1" t="s">
-        <v>7</v>
+        <v>166</v>
       </c>
       <c r="B162">
         <v>0.08333333333333333</v>
       </c>
       <c r="C162">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D162">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="E162">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="F162">
-        <v>0.5</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G162" t="b">
         <v>1</v>
       </c>
       <c r="H162">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>459</v>
@@ -12859,22 +12859,22 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="C163">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D163">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="E163">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="F163">
-        <v>0.05000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G163" t="b">
         <v>1</v>
       </c>
       <c r="H163">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>460</v>
@@ -12912,16 +12912,16 @@
         <v>1</v>
       </c>
       <c r="D164">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E164">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F164">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H164">
         <v>11</v>
@@ -12977,7 +12977,7 @@
         <v>11</v>
       </c>
       <c r="J165" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K165">
         <v>0.4275862068965517</v>
@@ -13006,13 +13006,13 @@
         <v>170</v>
       </c>
       <c r="B166">
-        <v>0.08333333333333333</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="C166">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D166">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E166">
         <v>0</v>
@@ -13024,7 +13024,7 @@
         <v>0</v>
       </c>
       <c r="H166">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>462</v>
@@ -13056,25 +13056,25 @@
         <v>171</v>
       </c>
       <c r="B167">
-        <v>0.08108108108108109</v>
+        <v>0.08</v>
       </c>
       <c r="C167">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D167">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F167">
-        <v>1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H167">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>463</v>
@@ -13106,25 +13106,25 @@
         <v>172</v>
       </c>
       <c r="B168">
-        <v>0.08</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="C168">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D168">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E168">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F168">
-        <v>0.09999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H168">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>464</v>
@@ -13156,13 +13156,13 @@
         <v>173</v>
       </c>
       <c r="B169">
-        <v>0.07894736842105263</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C169">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D169">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E169">
         <v>0</v>
@@ -13174,7 +13174,7 @@
         <v>0</v>
       </c>
       <c r="H169">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>465</v>
@@ -13209,10 +13209,10 @@
         <v>0.07692307692307693</v>
       </c>
       <c r="C170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E170">
         <v>0</v>
@@ -13224,7 +13224,7 @@
         <v>0</v>
       </c>
       <c r="H170">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>466</v>
@@ -13309,10 +13309,10 @@
         <v>0.07692307692307693</v>
       </c>
       <c r="C172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E172">
         <v>0</v>
@@ -13324,7 +13324,7 @@
         <v>0</v>
       </c>
       <c r="H172">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>468</v>
@@ -13359,22 +13359,22 @@
         <v>0.07692307692307693</v>
       </c>
       <c r="C173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D173">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F173">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H173">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>469</v>
@@ -13412,13 +13412,13 @@
         <v>1</v>
       </c>
       <c r="D174">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E174">
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
       <c r="F174">
-        <v>0.33</v>
+        <v>0.14</v>
       </c>
       <c r="G174" t="b">
         <v>1</v>
@@ -13462,13 +13462,13 @@
         <v>1</v>
       </c>
       <c r="D175">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E175">
-        <v>0.86</v>
+        <v>0.5</v>
       </c>
       <c r="F175">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="G175" t="b">
         <v>1</v>
@@ -13512,16 +13512,16 @@
         <v>1</v>
       </c>
       <c r="D176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E176">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F176">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G176" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H176">
         <v>12</v>
@@ -13656,13 +13656,13 @@
         <v>183</v>
       </c>
       <c r="B179">
-        <v>0.07692307692307693</v>
+        <v>0.075</v>
       </c>
       <c r="C179">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D179">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E179">
         <v>0</v>
@@ -13674,7 +13674,7 @@
         <v>0</v>
       </c>
       <c r="H179">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>93</v>
@@ -13706,25 +13706,25 @@
         <v>184</v>
       </c>
       <c r="B180">
-        <v>0.075</v>
+        <v>0.07317073170731707</v>
       </c>
       <c r="C180">
         <v>3</v>
       </c>
       <c r="D180">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="F180">
-        <v>1</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H180">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>472</v>
@@ -13756,25 +13756,25 @@
         <v>185</v>
       </c>
       <c r="B181">
-        <v>0.07317073170731707</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C181">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D181">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="E181">
-        <v>0.91</v>
+        <v>0.8</v>
       </c>
       <c r="F181">
-        <v>0.08999999999999997</v>
+        <v>0.2</v>
       </c>
       <c r="G181" t="b">
         <v>1</v>
       </c>
       <c r="H181">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>473</v>
@@ -13812,13 +13812,13 @@
         <v>1</v>
       </c>
       <c r="D182">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E182">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="F182">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="G182" t="b">
         <v>1</v>
@@ -13862,13 +13862,13 @@
         <v>1</v>
       </c>
       <c r="D183">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E183">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="F183">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="G183" t="b">
         <v>1</v>
@@ -13912,13 +13912,13 @@
         <v>1</v>
       </c>
       <c r="D184">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E184">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F184">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G184" t="b">
         <v>1</v>
@@ -13962,16 +13962,16 @@
         <v>1</v>
       </c>
       <c r="D185">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E185">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F185">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G185" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H185">
         <v>13</v>
@@ -14006,25 +14006,25 @@
         <v>190</v>
       </c>
       <c r="B186">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C186">
         <v>1</v>
       </c>
       <c r="D186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E186">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F186">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H186">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>97</v>
@@ -14077,7 +14077,7 @@
         <v>14</v>
       </c>
       <c r="J187" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K187">
         <v>0.3703703703703703</v>
@@ -14109,22 +14109,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="C188">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D188">
-        <v>186</v>
+        <v>1</v>
       </c>
       <c r="E188">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F188">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G188" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H188">
-        <v>154</v>
+        <v>14</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>478</v>
@@ -14209,22 +14209,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="C190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D190">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E190">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="F190">
-        <v>1</v>
+        <v>0.29</v>
       </c>
       <c r="G190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H190">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>122</v>
@@ -14262,16 +14262,16 @@
         <v>1</v>
       </c>
       <c r="D191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E191">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F191">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H191">
         <v>14</v>
@@ -14309,22 +14309,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="C192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D192">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E192">
-        <v>0.71</v>
+        <v>0.5</v>
       </c>
       <c r="F192">
-        <v>0.29</v>
+        <v>0.5</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>481</v>
@@ -14359,10 +14359,10 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="C193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E193">
         <v>0</v>
@@ -14374,10 +14374,10 @@
         <v>0</v>
       </c>
       <c r="H193">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="J193" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K193">
         <v>0.36</v>
@@ -14406,28 +14406,28 @@
         <v>198</v>
       </c>
       <c r="B194">
-        <v>0.06666666666666667</v>
+        <v>0.06493506493506493</v>
       </c>
       <c r="C194">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D194">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E194">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F194">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G194" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H194">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="J194" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K194">
         <v>0.3571428571428572</v>
@@ -14456,7 +14456,7 @@
         <v>199</v>
       </c>
       <c r="B195">
-        <v>0.06666666666666667</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="C195">
         <v>2</v>
@@ -14474,7 +14474,7 @@
         <v>0</v>
       </c>
       <c r="H195">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>482</v>
@@ -14506,28 +14506,28 @@
         <v>200</v>
       </c>
       <c r="B196">
-        <v>0.06493506493506493</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="C196">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D196">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E196">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F196">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H196">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="J196" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K196">
         <v>0.3571428571428572</v>
@@ -14556,13 +14556,13 @@
         <v>201</v>
       </c>
       <c r="B197">
-        <v>0.06451612903225806</v>
+        <v>0.0625</v>
       </c>
       <c r="C197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E197">
         <v>0</v>
@@ -14574,7 +14574,7 @@
         <v>0</v>
       </c>
       <c r="H197">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>483</v>
@@ -14606,25 +14606,25 @@
         <v>202</v>
       </c>
       <c r="B198">
-        <v>0.06451612903225806</v>
+        <v>0.0625</v>
       </c>
       <c r="C198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D198">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E198">
-        <v>0.5</v>
+        <v>0.92</v>
       </c>
       <c r="F198">
-        <v>0.5</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
       </c>
       <c r="H198">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>484</v>
@@ -14659,10 +14659,10 @@
         <v>0.0625</v>
       </c>
       <c r="C199">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D199">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E199">
         <v>0</v>
@@ -14674,7 +14674,7 @@
         <v>0</v>
       </c>
       <c r="H199">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>485</v>
@@ -14706,25 +14706,25 @@
         <v>204</v>
       </c>
       <c r="B200">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C200">
         <v>1</v>
       </c>
       <c r="D200">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E200">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F200">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H200">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>486</v>
@@ -14756,28 +14756,28 @@
         <v>205</v>
       </c>
       <c r="B201">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C201">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D201">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="E201">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F201">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H201">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="J201" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K201">
         <v>0.3529411764705883</v>
@@ -14862,16 +14862,16 @@
         <v>1</v>
       </c>
       <c r="D203">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="E203">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F203">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G203" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H203">
         <v>16</v>
@@ -14912,16 +14912,16 @@
         <v>1</v>
       </c>
       <c r="D204">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F204">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H204">
         <v>16</v>
@@ -14962,16 +14962,16 @@
         <v>1</v>
       </c>
       <c r="D205">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E205">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F205">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G205" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H205">
         <v>16</v>
@@ -15012,13 +15012,13 @@
         <v>1</v>
       </c>
       <c r="D206">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E206">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="F206">
-        <v>0.25</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
@@ -15056,25 +15056,25 @@
         <v>211</v>
       </c>
       <c r="B207">
-        <v>0.05882352941176471</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="C207">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D207">
         <v>3</v>
       </c>
       <c r="E207">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="F207">
-        <v>0.33</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>492</v>
@@ -15106,25 +15106,25 @@
         <v>212</v>
       </c>
       <c r="B208">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C208">
         <v>1</v>
       </c>
       <c r="D208">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E208">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="F208">
-        <v>0.09999999999999998</v>
+        <v>0.2</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
       </c>
       <c r="H208">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>74</v>
@@ -15156,25 +15156,25 @@
         <v>213</v>
       </c>
       <c r="B209">
-        <v>0.05714285714285714</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C209">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D209">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E209">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="F209">
-        <v>0.6699999999999999</v>
+        <v>1</v>
       </c>
       <c r="G209" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H209">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>493</v>
@@ -15212,13 +15212,13 @@
         <v>1</v>
       </c>
       <c r="D210">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E210">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="F210">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
@@ -15256,7 +15256,7 @@
         <v>215</v>
       </c>
       <c r="B211">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C211">
         <v>1</v>
@@ -15274,7 +15274,7 @@
         <v>0</v>
       </c>
       <c r="H211">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>495</v>
@@ -15306,25 +15306,25 @@
         <v>216</v>
       </c>
       <c r="B212">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C212">
         <v>1</v>
       </c>
       <c r="D212">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E212">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F212">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G212" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H212">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>496</v>
@@ -15362,16 +15362,16 @@
         <v>1</v>
       </c>
       <c r="D213">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E213">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F213">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G213" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H213">
         <v>18</v>
@@ -15412,16 +15412,16 @@
         <v>1</v>
       </c>
       <c r="D214">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E214">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F214">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H214">
         <v>18</v>
@@ -15462,13 +15462,13 @@
         <v>1</v>
       </c>
       <c r="D215">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E215">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="F215">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
@@ -15512,13 +15512,13 @@
         <v>1</v>
       </c>
       <c r="D216">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E216">
-        <v>0.75</v>
+        <v>0.91</v>
       </c>
       <c r="F216">
-        <v>0.25</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
@@ -15562,16 +15562,16 @@
         <v>1</v>
       </c>
       <c r="D217">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E217">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F217">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G217" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H217">
         <v>18</v>
@@ -15606,25 +15606,25 @@
         <v>222</v>
       </c>
       <c r="B218">
-        <v>0.05263157894736842</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="C218">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D218">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E218">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="F218">
-        <v>0.08999999999999997</v>
+        <v>1</v>
       </c>
       <c r="G218" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H218">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>502</v>
@@ -15656,25 +15656,25 @@
         <v>223</v>
       </c>
       <c r="B219">
-        <v>0.05263157894736842</v>
+        <v>0.05</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
       <c r="D219">
-        <v>1</v>
+        <v>109</v>
       </c>
       <c r="E219">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="F219">
-        <v>1</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G219" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H219">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>503</v>
@@ -15706,28 +15706,28 @@
         <v>224</v>
       </c>
       <c r="B220">
-        <v>0.05128205128205128</v>
+        <v>0.05</v>
       </c>
       <c r="C220">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D220">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E220">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F220">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G220" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H220">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J220" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K220">
         <v>0.3333333333333333</v>
@@ -15762,13 +15762,13 @@
         <v>1</v>
       </c>
       <c r="D221">
-        <v>109</v>
+        <v>4</v>
       </c>
       <c r="E221">
-        <v>0.99</v>
+        <v>0.75</v>
       </c>
       <c r="F221">
-        <v>0.01000000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
@@ -15806,25 +15806,25 @@
         <v>226</v>
       </c>
       <c r="B222">
-        <v>0.05</v>
+        <v>0.04878048780487805</v>
       </c>
       <c r="C222">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D222">
-        <v>4</v>
+        <v>121</v>
       </c>
       <c r="E222">
-        <v>0.75</v>
+        <v>0.98</v>
       </c>
       <c r="F222">
-        <v>0.25</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>505</v>
@@ -15856,25 +15856,25 @@
         <v>227</v>
       </c>
       <c r="B223">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C223">
         <v>1</v>
       </c>
       <c r="D223">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E223">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F223">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G223" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H223">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>506</v>
@@ -15906,25 +15906,25 @@
         <v>228</v>
       </c>
       <c r="B224">
-        <v>0.04878048780487805</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C224">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D224">
-        <v>121</v>
+        <v>4</v>
       </c>
       <c r="E224">
-        <v>0.98</v>
+        <v>0.75</v>
       </c>
       <c r="F224">
-        <v>0.02000000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>507</v>
@@ -15962,16 +15962,16 @@
         <v>1</v>
       </c>
       <c r="D225">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E225">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F225">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G225" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H225">
         <v>20</v>
@@ -16012,13 +16012,13 @@
         <v>1</v>
       </c>
       <c r="D226">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E226">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="F226">
-        <v>0.25</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
@@ -16056,25 +16056,25 @@
         <v>231</v>
       </c>
       <c r="B227">
-        <v>0.04761904761904762</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C227">
         <v>1</v>
       </c>
       <c r="D227">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E227">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F227">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>509</v>
@@ -16106,25 +16106,25 @@
         <v>232</v>
       </c>
       <c r="B228">
-        <v>0.04761904761904762</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C228">
         <v>1</v>
       </c>
       <c r="D228">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E228">
-        <v>0.95</v>
+        <v>0.86</v>
       </c>
       <c r="F228">
-        <v>0.05000000000000004</v>
+        <v>0.14</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>510</v>
@@ -16212,13 +16212,13 @@
         <v>1</v>
       </c>
       <c r="D230">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E230">
-        <v>0.86</v>
+        <v>0.5</v>
       </c>
       <c r="F230">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="G230" t="b">
         <v>1</v>
@@ -16262,13 +16262,13 @@
         <v>1</v>
       </c>
       <c r="D231">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E231">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="F231">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
@@ -16312,16 +16312,16 @@
         <v>1</v>
       </c>
       <c r="D232">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E232">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F232">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G232" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H232">
         <v>21</v>
@@ -16356,25 +16356,25 @@
         <v>237</v>
       </c>
       <c r="B233">
-        <v>0.04545454545454546</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="C233">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D233">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E233">
-        <v>0.88</v>
+        <v>0.6</v>
       </c>
       <c r="F233">
-        <v>0.12</v>
+        <v>0.4</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>514</v>
@@ -16406,7 +16406,7 @@
         <v>238</v>
       </c>
       <c r="B234">
-        <v>0.04545454545454546</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C234">
         <v>1</v>
@@ -16424,7 +16424,7 @@
         <v>0</v>
       </c>
       <c r="H234">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>515</v>
@@ -16456,25 +16456,25 @@
         <v>239</v>
       </c>
       <c r="B235">
-        <v>0.04444444444444445</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C235">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D235">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E235">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="F235">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="G235" t="b">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>516</v>
@@ -16512,16 +16512,16 @@
         <v>1</v>
       </c>
       <c r="D236">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E236">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="F236">
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="G236" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H236">
         <v>22</v>
@@ -16562,13 +16562,13 @@
         <v>1</v>
       </c>
       <c r="D237">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E237">
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
       <c r="F237">
-        <v>0.33</v>
+        <v>0.14</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
@@ -16612,13 +16612,13 @@
         <v>1</v>
       </c>
       <c r="D238">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E238">
-        <v>0.89</v>
+        <v>0.5</v>
       </c>
       <c r="F238">
-        <v>0.11</v>
+        <v>0.5</v>
       </c>
       <c r="G238" t="b">
         <v>1</v>
@@ -16656,25 +16656,25 @@
         <v>243</v>
       </c>
       <c r="B239">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C239">
         <v>1</v>
       </c>
       <c r="D239">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E239">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="F239">
-        <v>0.14</v>
+        <v>0.33</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>520</v>
@@ -16706,25 +16706,25 @@
         <v>244</v>
       </c>
       <c r="B240">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C240">
         <v>1</v>
       </c>
       <c r="D240">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E240">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F240">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G240" t="b">
         <v>1</v>
       </c>
       <c r="H240">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>521</v>
@@ -16762,16 +16762,16 @@
         <v>1</v>
       </c>
       <c r="D241">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E241">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F241">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G241" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H241">
         <v>23</v>
@@ -16806,25 +16806,25 @@
         <v>246</v>
       </c>
       <c r="B242">
-        <v>0.04166666666666666</v>
+        <v>0.04</v>
       </c>
       <c r="C242">
         <v>1</v>
       </c>
       <c r="D242">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E242">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F242">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G242" t="b">
         <v>1</v>
       </c>
       <c r="H242">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>523</v>
@@ -16856,7 +16856,7 @@
         <v>247</v>
       </c>
       <c r="B243">
-        <v>0.04166666666666666</v>
+        <v>0.04</v>
       </c>
       <c r="C243">
         <v>1</v>
@@ -16874,7 +16874,7 @@
         <v>0</v>
       </c>
       <c r="H243">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>524</v>
@@ -16906,25 +16906,25 @@
         <v>248</v>
       </c>
       <c r="B244">
-        <v>0.04</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="C244">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D244">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E244">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F244">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G244" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H244">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>525</v>
@@ -16956,25 +16956,25 @@
         <v>249</v>
       </c>
       <c r="B245">
-        <v>0.04</v>
+        <v>0.03773584905660377</v>
       </c>
       <c r="C245">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D245">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E245">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="F245">
-        <v>1</v>
+        <v>0.29</v>
       </c>
       <c r="G245" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H245">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>526</v>
@@ -17006,13 +17006,13 @@
         <v>250</v>
       </c>
       <c r="B246">
-        <v>0.0392156862745098</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C246">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D246">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E246">
         <v>0</v>
@@ -17024,7 +17024,7 @@
         <v>0</v>
       </c>
       <c r="H246">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>527</v>
@@ -17056,25 +17056,25 @@
         <v>251</v>
       </c>
       <c r="B247">
-        <v>0.03773584905660377</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C247">
         <v>2</v>
       </c>
       <c r="D247">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E247">
-        <v>0.71</v>
+        <v>0.9</v>
       </c>
       <c r="F247">
-        <v>0.29</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G247" t="b">
         <v>1</v>
       </c>
       <c r="H247">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>528</v>
@@ -17112,16 +17112,16 @@
         <v>1</v>
       </c>
       <c r="D248">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E248">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="F248">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G248" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H248">
         <v>26</v>
@@ -17156,25 +17156,25 @@
         <v>253</v>
       </c>
       <c r="B249">
-        <v>0.03703703703703703</v>
+        <v>0.03636363636363636</v>
       </c>
       <c r="C249">
         <v>2</v>
       </c>
       <c r="D249">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E249">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F249">
-        <v>0.09999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G249" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H249">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>530</v>
@@ -17206,25 +17206,25 @@
         <v>254</v>
       </c>
       <c r="B250">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C250">
         <v>1</v>
       </c>
       <c r="D250">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E250">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F250">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G250" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H250">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>531</v>
@@ -17256,25 +17256,25 @@
         <v>255</v>
       </c>
       <c r="B251">
-        <v>0.03636363636363636</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C251">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D251">
         <v>2</v>
       </c>
       <c r="E251">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F251">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G251" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H251">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>532</v>
@@ -17306,25 +17306,25 @@
         <v>256</v>
       </c>
       <c r="B252">
-        <v>0.03571428571428571</v>
+        <v>0.03508771929824561</v>
       </c>
       <c r="C252">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D252">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E252">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F252">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G252" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H252">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>533</v>
@@ -17356,25 +17356,25 @@
         <v>257</v>
       </c>
       <c r="B253">
-        <v>0.03571428571428571</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C253">
         <v>1</v>
       </c>
       <c r="D253">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E253">
-        <v>0.5</v>
+        <v>0.91</v>
       </c>
       <c r="F253">
-        <v>0.5</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G253" t="b">
         <v>1</v>
       </c>
       <c r="H253">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>534</v>
@@ -17406,25 +17406,25 @@
         <v>258</v>
       </c>
       <c r="B254">
-        <v>0.03508771929824561</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C254">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D254">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E254">
-        <v>0.83</v>
+        <v>0.92</v>
       </c>
       <c r="F254">
-        <v>0.17</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G254" t="b">
         <v>1</v>
       </c>
       <c r="H254">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>535</v>
@@ -17456,25 +17456,25 @@
         <v>259</v>
       </c>
       <c r="B255">
-        <v>0.03448275862068965</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C255">
         <v>1</v>
       </c>
       <c r="D255">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E255">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="F255">
-        <v>0.08999999999999997</v>
+        <v>1</v>
       </c>
       <c r="G255" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H255">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>536</v>
@@ -17512,16 +17512,16 @@
         <v>1</v>
       </c>
       <c r="D256">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E256">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F256">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G256" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H256">
         <v>29</v>
@@ -17556,25 +17556,25 @@
         <v>261</v>
       </c>
       <c r="B257">
-        <v>0.03333333333333333</v>
+        <v>0.03125</v>
       </c>
       <c r="C257">
         <v>1</v>
       </c>
       <c r="D257">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E257">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F257">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G257" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H257">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>538</v>
@@ -17606,25 +17606,25 @@
         <v>262</v>
       </c>
       <c r="B258">
-        <v>0.03333333333333333</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="C258">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D258">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E258">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="F258">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G258" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H258">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>539</v>
@@ -17656,25 +17656,25 @@
         <v>263</v>
       </c>
       <c r="B259">
-        <v>0.03125</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="C259">
         <v>1</v>
       </c>
       <c r="D259">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="E259">
-        <v>0.75</v>
+        <v>0.97</v>
       </c>
       <c r="F259">
-        <v>0.25</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G259" t="b">
         <v>1</v>
       </c>
       <c r="H259">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>540</v>
@@ -17706,25 +17706,25 @@
         <v>264</v>
       </c>
       <c r="B260">
-        <v>0.03076923076923077</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="C260">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D260">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E260">
-        <v>0.88</v>
+        <v>0.5</v>
       </c>
       <c r="F260">
-        <v>0.12</v>
+        <v>0.5</v>
       </c>
       <c r="G260" t="b">
         <v>1</v>
       </c>
       <c r="H260">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>541</v>
@@ -17756,28 +17756,28 @@
         <v>265</v>
       </c>
       <c r="B261">
-        <v>0.0303030303030303</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="C261">
         <v>1</v>
       </c>
       <c r="D261">
+        <v>4</v>
+      </c>
+      <c r="E261">
+        <v>0.75</v>
+      </c>
+      <c r="F261">
+        <v>0.25</v>
+      </c>
+      <c r="G261" t="b">
+        <v>1</v>
+      </c>
+      <c r="H261">
         <v>33</v>
       </c>
-      <c r="E261">
-        <v>0.97</v>
-      </c>
-      <c r="F261">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="G261" t="b">
-        <v>1</v>
-      </c>
-      <c r="H261">
-        <v>32</v>
-      </c>
       <c r="J261" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K261">
         <v>0.2926829268292683</v>
@@ -17812,22 +17812,22 @@
         <v>1</v>
       </c>
       <c r="D262">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E262">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F262">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G262" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H262">
         <v>33</v>
       </c>
       <c r="J262" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K262">
         <v>0.2916666666666667</v>
@@ -17856,25 +17856,25 @@
         <v>267</v>
       </c>
       <c r="B263">
-        <v>0.02941176470588235</v>
+        <v>0.02923976608187134</v>
       </c>
       <c r="C263">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D263">
-        <v>4</v>
+        <v>129</v>
       </c>
       <c r="E263">
-        <v>0.75</v>
+        <v>0.96</v>
       </c>
       <c r="F263">
-        <v>0.25</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G263" t="b">
         <v>1</v>
       </c>
       <c r="H263">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>542</v>
@@ -17906,7 +17906,7 @@
         <v>268</v>
       </c>
       <c r="B264">
-        <v>0.02941176470588235</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C264">
         <v>1</v>
@@ -17924,7 +17924,7 @@
         <v>0</v>
       </c>
       <c r="H264">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>543</v>
@@ -17956,25 +17956,25 @@
         <v>269</v>
       </c>
       <c r="B265">
-        <v>0.02923976608187134</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C265">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D265">
-        <v>129</v>
+        <v>1</v>
       </c>
       <c r="E265">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F265">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G265" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H265">
-        <v>166</v>
+        <v>35</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>544</v>
@@ -18006,25 +18006,25 @@
         <v>270</v>
       </c>
       <c r="B266">
-        <v>0.02857142857142857</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C266">
         <v>1</v>
       </c>
       <c r="D266">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E266">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F266">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G266" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H266">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>545</v>
@@ -18056,28 +18056,28 @@
         <v>271</v>
       </c>
       <c r="B267">
-        <v>0.02777777777777778</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C267">
         <v>1</v>
       </c>
       <c r="D267">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E267">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F267">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G267" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H267">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J267" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K267">
         <v>0.2857142857142857</v>
@@ -18106,25 +18106,25 @@
         <v>272</v>
       </c>
       <c r="B268">
-        <v>0.02631578947368421</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C268">
         <v>1</v>
       </c>
       <c r="D268">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E268">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F268">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G268" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H268">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>546</v>
@@ -18156,25 +18156,25 @@
         <v>273</v>
       </c>
       <c r="B269">
-        <v>0.02631578947368421</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C269">
         <v>1</v>
       </c>
       <c r="D269">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E269">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="F269">
-        <v>0.5</v>
+        <v>0.14</v>
       </c>
       <c r="G269" t="b">
         <v>1</v>
       </c>
       <c r="H269">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>547</v>
@@ -18212,16 +18212,16 @@
         <v>1</v>
       </c>
       <c r="D270">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E270">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F270">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G270" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H270">
         <v>38</v>
@@ -18256,25 +18256,25 @@
         <v>275</v>
       </c>
       <c r="B271">
-        <v>0.02564102564102564</v>
+        <v>0.025</v>
       </c>
       <c r="C271">
         <v>1</v>
       </c>
       <c r="D271">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E271">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="F271">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="G271" t="b">
         <v>1</v>
       </c>
       <c r="H271">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>548</v>
@@ -18306,25 +18306,25 @@
         <v>276</v>
       </c>
       <c r="B272">
-        <v>0.02564102564102564</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C272">
         <v>1</v>
       </c>
       <c r="D272">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E272">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="F272">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="G272" t="b">
         <v>1</v>
       </c>
       <c r="H272">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J272" s="1" t="s">
         <v>549</v>
@@ -18356,25 +18356,25 @@
         <v>277</v>
       </c>
       <c r="B273">
-        <v>0.025</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C273">
         <v>1</v>
       </c>
       <c r="D273">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E273">
-        <v>0.89</v>
+        <v>0.5</v>
       </c>
       <c r="F273">
-        <v>0.11</v>
+        <v>0.5</v>
       </c>
       <c r="G273" t="b">
         <v>1</v>
       </c>
       <c r="H273">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J273" s="1" t="s">
         <v>550</v>
@@ -18406,25 +18406,25 @@
         <v>278</v>
       </c>
       <c r="B274">
-        <v>0.02439024390243903</v>
+        <v>0.0234375</v>
       </c>
       <c r="C274">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D274">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E274">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="F274">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="G274" t="b">
         <v>1</v>
       </c>
       <c r="H274">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="J274" s="1" t="s">
         <v>551</v>
@@ -18456,25 +18456,25 @@
         <v>279</v>
       </c>
       <c r="B275">
-        <v>0.02439024390243903</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="C275">
         <v>1</v>
       </c>
       <c r="D275">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E275">
-        <v>0.5</v>
+        <v>0.91</v>
       </c>
       <c r="F275">
-        <v>0.5</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G275" t="b">
         <v>1</v>
       </c>
       <c r="H275">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J275" s="1" t="s">
         <v>552</v>
@@ -18506,25 +18506,25 @@
         <v>280</v>
       </c>
       <c r="B276">
-        <v>0.0234375</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="C276">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D276">
         <v>13</v>
       </c>
       <c r="E276">
-        <v>0.77</v>
+        <v>0.85</v>
       </c>
       <c r="F276">
-        <v>0.23</v>
+        <v>0.15</v>
       </c>
       <c r="G276" t="b">
         <v>1</v>
       </c>
       <c r="H276">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="J276" s="1" t="s">
         <v>553</v>
@@ -18556,25 +18556,25 @@
         <v>281</v>
       </c>
       <c r="B277">
-        <v>0.02325581395348837</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="C277">
         <v>1</v>
       </c>
       <c r="D277">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E277">
-        <v>0.91</v>
+        <v>0.5</v>
       </c>
       <c r="F277">
-        <v>0.08999999999999997</v>
+        <v>0.5</v>
       </c>
       <c r="G277" t="b">
         <v>1</v>
       </c>
       <c r="H277">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J277" s="1" t="s">
         <v>554</v>
@@ -18606,25 +18606,25 @@
         <v>282</v>
       </c>
       <c r="B278">
-        <v>0.02325581395348837</v>
+        <v>0.02197802197802198</v>
       </c>
       <c r="C278">
         <v>2</v>
       </c>
       <c r="D278">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E278">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="F278">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="G278" t="b">
         <v>1</v>
       </c>
       <c r="H278">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J278" s="1" t="s">
         <v>555</v>
@@ -18656,25 +18656,25 @@
         <v>283</v>
       </c>
       <c r="B279">
-        <v>0.02272727272727273</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="C279">
         <v>1</v>
       </c>
       <c r="D279">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E279">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F279">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G279" t="b">
         <v>1</v>
       </c>
       <c r="H279">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J279" s="1" t="s">
         <v>556</v>
@@ -18706,13 +18706,13 @@
         <v>284</v>
       </c>
       <c r="B280">
-        <v>0.02197802197802198</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="C280">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D280">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E280">
         <v>0.83</v>
@@ -18724,7 +18724,7 @@
         <v>1</v>
       </c>
       <c r="H280">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="J280" s="1" t="s">
         <v>557</v>
@@ -18756,25 +18756,25 @@
         <v>285</v>
       </c>
       <c r="B281">
-        <v>0.02173913043478261</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="C281">
         <v>1</v>
       </c>
       <c r="D281">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E281">
-        <v>0.8</v>
+        <v>0.89</v>
       </c>
       <c r="F281">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
       <c r="G281" t="b">
         <v>1</v>
       </c>
       <c r="H281">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J281" s="1" t="s">
         <v>558</v>
@@ -18806,25 +18806,25 @@
         <v>286</v>
       </c>
       <c r="B282">
-        <v>0.02173913043478261</v>
+        <v>0.02013422818791946</v>
       </c>
       <c r="C282">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D282">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E282">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F282">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G282" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H282">
-        <v>45</v>
+        <v>146</v>
       </c>
       <c r="J282" s="1" t="s">
         <v>559</v>
@@ -18856,25 +18856,25 @@
         <v>287</v>
       </c>
       <c r="B283">
-        <v>0.02040816326530612</v>
+        <v>0.02</v>
       </c>
       <c r="C283">
         <v>1</v>
       </c>
       <c r="D283">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="E283">
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
       <c r="F283">
-        <v>0.11</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G283" t="b">
         <v>1</v>
       </c>
       <c r="H283">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J283" s="1" t="s">
         <v>560</v>
@@ -18906,25 +18906,25 @@
         <v>288</v>
       </c>
       <c r="B284">
-        <v>0.02013422818791946</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C284">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D284">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E284">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F284">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G284" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H284">
-        <v>146</v>
+        <v>50</v>
       </c>
       <c r="J284" s="1" t="s">
         <v>561</v>
@@ -18956,25 +18956,25 @@
         <v>289</v>
       </c>
       <c r="B285">
-        <v>0.02</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C285">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D285">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="E285">
-        <v>0.97</v>
+        <v>0.89</v>
       </c>
       <c r="F285">
-        <v>0.03000000000000003</v>
+        <v>0.11</v>
       </c>
       <c r="G285" t="b">
         <v>1</v>
       </c>
       <c r="H285">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="J285" s="1" t="s">
         <v>562</v>
@@ -19006,25 +19006,25 @@
         <v>290</v>
       </c>
       <c r="B286">
-        <v>0.0196078431372549</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="C286">
         <v>1</v>
       </c>
       <c r="D286">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E286">
-        <v>0.83</v>
+        <v>0.92</v>
       </c>
       <c r="F286">
-        <v>0.17</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G286" t="b">
         <v>1</v>
       </c>
       <c r="H286">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J286" s="1" t="s">
         <v>563</v>
@@ -19056,25 +19056,25 @@
         <v>291</v>
       </c>
       <c r="B287">
-        <v>0.0196078431372549</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="C287">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D287">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E287">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="F287">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="G287" t="b">
         <v>1</v>
       </c>
       <c r="H287">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="J287" s="1" t="s">
         <v>564</v>
@@ -19106,25 +19106,25 @@
         <v>292</v>
       </c>
       <c r="B288">
-        <v>0.01923076923076923</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="C288">
         <v>1</v>
       </c>
       <c r="D288">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E288">
-        <v>0.92</v>
+        <v>0.8</v>
       </c>
       <c r="F288">
-        <v>0.07999999999999996</v>
+        <v>0.2</v>
       </c>
       <c r="G288" t="b">
         <v>1</v>
       </c>
       <c r="H288">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J288" s="1" t="s">
         <v>565</v>
@@ -19156,25 +19156,25 @@
         <v>293</v>
       </c>
       <c r="B289">
-        <v>0.01923076923076923</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C289">
         <v>1</v>
       </c>
       <c r="D289">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E289">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="F289">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="G289" t="b">
         <v>1</v>
       </c>
       <c r="H289">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J289" s="1" t="s">
         <v>95</v>
@@ -19206,25 +19206,25 @@
         <v>294</v>
       </c>
       <c r="B290">
-        <v>0.01886792452830189</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="C290">
         <v>1</v>
       </c>
       <c r="D290">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E290">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="F290">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="G290" t="b">
         <v>1</v>
       </c>
       <c r="H290">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="J290" s="1" t="s">
         <v>566</v>
@@ -19256,25 +19256,25 @@
         <v>295</v>
       </c>
       <c r="B291">
-        <v>0.01818181818181818</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="C291">
         <v>1</v>
       </c>
       <c r="D291">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E291">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="F291">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G291" t="b">
         <v>1</v>
       </c>
       <c r="H291">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J291" s="1" t="s">
         <v>567</v>
@@ -19306,25 +19306,25 @@
         <v>296</v>
       </c>
       <c r="B292">
-        <v>0.01754385964912281</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="C292">
         <v>1</v>
       </c>
       <c r="D292">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E292">
-        <v>0.86</v>
+        <v>0.5</v>
       </c>
       <c r="F292">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="G292" t="b">
         <v>1</v>
       </c>
       <c r="H292">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J292" s="1" t="s">
         <v>568</v>
@@ -19356,28 +19356,28 @@
         <v>297</v>
       </c>
       <c r="B293">
-        <v>0.01724137931034483</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="C293">
         <v>1</v>
       </c>
       <c r="D293">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E293">
-        <v>0.83</v>
+        <v>0.93</v>
       </c>
       <c r="F293">
-        <v>0.17</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G293" t="b">
         <v>1</v>
       </c>
       <c r="H293">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J293" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K293">
         <v>0.2857142857142857</v>
@@ -19406,25 +19406,25 @@
         <v>298</v>
       </c>
       <c r="B294">
-        <v>0.01724137931034483</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="C294">
         <v>1</v>
       </c>
       <c r="D294">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E294">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="F294">
-        <v>0.5</v>
+        <v>0.14</v>
       </c>
       <c r="G294" t="b">
         <v>1</v>
       </c>
       <c r="H294">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J294" s="1" t="s">
         <v>569</v>
@@ -19456,25 +19456,25 @@
         <v>299</v>
       </c>
       <c r="B295">
-        <v>0.01694915254237288</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="C295">
         <v>1</v>
       </c>
       <c r="D295">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E295">
-        <v>0.93</v>
+        <v>0.83</v>
       </c>
       <c r="F295">
-        <v>0.06999999999999995</v>
+        <v>0.17</v>
       </c>
       <c r="G295" t="b">
         <v>1</v>
       </c>
       <c r="H295">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J295" s="1" t="s">
         <v>570</v>
@@ -19506,25 +19506,25 @@
         <v>300</v>
       </c>
       <c r="B296">
-        <v>0.01666666666666667</v>
+        <v>0.015625</v>
       </c>
       <c r="C296">
         <v>1</v>
       </c>
       <c r="D296">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E296">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="F296">
-        <v>0.14</v>
+        <v>0.33</v>
       </c>
       <c r="G296" t="b">
         <v>1</v>
       </c>
       <c r="H296">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="J296" s="1" t="s">
         <v>571</v>
@@ -19556,25 +19556,25 @@
         <v>301</v>
       </c>
       <c r="B297">
-        <v>0.01639344262295082</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="C297">
         <v>1</v>
       </c>
       <c r="D297">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E297">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="F297">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="G297" t="b">
         <v>1</v>
       </c>
       <c r="H297">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J297" s="1" t="s">
         <v>572</v>
@@ -19606,25 +19606,25 @@
         <v>302</v>
       </c>
       <c r="B298">
-        <v>0.015625</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="C298">
         <v>1</v>
       </c>
       <c r="D298">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E298">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F298">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G298" t="b">
         <v>1</v>
       </c>
       <c r="H298">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="J298" s="1" t="s">
         <v>573</v>
@@ -19656,7 +19656,7 @@
         <v>303</v>
       </c>
       <c r="B299">
-        <v>0.01538461538461539</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="C299">
         <v>1</v>
@@ -19674,7 +19674,7 @@
         <v>1</v>
       </c>
       <c r="H299">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="J299" s="1" t="s">
         <v>574</v>
@@ -19706,25 +19706,25 @@
         <v>304</v>
       </c>
       <c r="B300">
-        <v>0.0136986301369863</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="C300">
         <v>1</v>
       </c>
       <c r="D300">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E300">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="F300">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="G300" t="b">
         <v>1</v>
       </c>
       <c r="H300">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="J300" s="1" t="s">
         <v>575</v>
@@ -19756,25 +19756,25 @@
         <v>305</v>
       </c>
       <c r="B301">
-        <v>0.0136986301369863</v>
+        <v>0.01238390092879257</v>
       </c>
       <c r="C301">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D301">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="E301">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="F301">
-        <v>0.12</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G301" t="b">
         <v>1</v>
       </c>
       <c r="H301">
-        <v>72</v>
+        <v>319</v>
       </c>
       <c r="J301" s="1" t="s">
         <v>576</v>
@@ -19806,25 +19806,25 @@
         <v>306</v>
       </c>
       <c r="B302">
-        <v>0.01265822784810127</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="C302">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D302">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E302">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F302">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G302" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H302">
-        <v>78</v>
+        <v>164</v>
       </c>
       <c r="J302" s="1" t="s">
         <v>577</v>
@@ -19856,25 +19856,25 @@
         <v>307</v>
       </c>
       <c r="B303">
-        <v>0.01238390092879257</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="C303">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D303">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="E303">
-        <v>0.96</v>
+        <v>0.86</v>
       </c>
       <c r="F303">
-        <v>0.04000000000000004</v>
+        <v>0.14</v>
       </c>
       <c r="G303" t="b">
         <v>1</v>
       </c>
       <c r="H303">
-        <v>319</v>
+        <v>82</v>
       </c>
       <c r="J303" s="1" t="s">
         <v>578</v>
@@ -19906,25 +19906,25 @@
         <v>308</v>
       </c>
       <c r="B304">
-        <v>0.01204819277108434</v>
+        <v>0.01149425287356322</v>
       </c>
       <c r="C304">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D304">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E304">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F304">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G304" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H304">
-        <v>164</v>
+        <v>86</v>
       </c>
       <c r="J304" s="1" t="s">
         <v>579</v>
@@ -19956,25 +19956,25 @@
         <v>309</v>
       </c>
       <c r="B305">
-        <v>0.01204819277108434</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="C305">
         <v>1</v>
       </c>
       <c r="D305">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E305">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F305">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="G305" t="b">
         <v>1</v>
       </c>
       <c r="H305">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J305" s="1" t="s">
         <v>580</v>
@@ -20006,25 +20006,25 @@
         <v>310</v>
       </c>
       <c r="B306">
-        <v>0.01149425287356322</v>
+        <v>0.01075268817204301</v>
       </c>
       <c r="C306">
         <v>1</v>
       </c>
       <c r="D306">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E306">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="F306">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G306" t="b">
         <v>1</v>
       </c>
       <c r="H306">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="J306" s="1" t="s">
         <v>581</v>
@@ -20056,25 +20056,25 @@
         <v>311</v>
       </c>
       <c r="B307">
-        <v>0.0108695652173913</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="C307">
         <v>1</v>
       </c>
       <c r="D307">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E307">
-        <v>0.83</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F307">
-        <v>0.17</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G307" t="b">
         <v>1</v>
       </c>
       <c r="H307">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="J307" s="1" t="s">
         <v>582</v>
@@ -20106,25 +20106,25 @@
         <v>312</v>
       </c>
       <c r="B308">
-        <v>0.01075268817204301</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="C308">
         <v>1</v>
       </c>
       <c r="D308">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E308">
-        <v>0.67</v>
+        <v>0.91</v>
       </c>
       <c r="F308">
-        <v>0.33</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G308" t="b">
         <v>1</v>
       </c>
       <c r="H308">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="J308" s="1" t="s">
         <v>583</v>
@@ -20156,25 +20156,25 @@
         <v>313</v>
       </c>
       <c r="B309">
-        <v>0.01041666666666667</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="C309">
         <v>1</v>
       </c>
       <c r="D309">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E309">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F309">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G309" t="b">
         <v>1</v>
       </c>
       <c r="H309">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="J309" s="1" t="s">
         <v>584</v>
@@ -20206,25 +20206,25 @@
         <v>314</v>
       </c>
       <c r="B310">
-        <v>0.0101010101010101</v>
+        <v>0.009345794392523364</v>
       </c>
       <c r="C310">
         <v>1</v>
       </c>
       <c r="D310">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E310">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="F310">
-        <v>0.08999999999999997</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G310" t="b">
         <v>1</v>
       </c>
       <c r="H310">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J310" s="1" t="s">
         <v>585</v>
@@ -20256,25 +20256,25 @@
         <v>315</v>
       </c>
       <c r="B311">
-        <v>0.0101010101010101</v>
+        <v>0.009174311926605505</v>
       </c>
       <c r="C311">
         <v>1</v>
       </c>
       <c r="D311">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E311">
-        <v>0.93</v>
+        <v>0.86</v>
       </c>
       <c r="F311">
-        <v>0.06999999999999995</v>
+        <v>0.14</v>
       </c>
       <c r="G311" t="b">
         <v>1</v>
       </c>
       <c r="H311">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="J311" s="1" t="s">
         <v>586</v>
@@ -20306,25 +20306,25 @@
         <v>316</v>
       </c>
       <c r="B312">
-        <v>0.009345794392523364</v>
+        <v>0.0091324200913242</v>
       </c>
       <c r="C312">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D312">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="E312">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="F312">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G312" t="b">
         <v>1</v>
       </c>
       <c r="H312">
-        <v>106</v>
+        <v>217</v>
       </c>
       <c r="J312" s="1" t="s">
         <v>587</v>
@@ -20356,28 +20356,28 @@
         <v>317</v>
       </c>
       <c r="B313">
-        <v>0.009174311926605505</v>
+        <v>0.008928571428571428</v>
       </c>
       <c r="C313">
         <v>1</v>
       </c>
       <c r="D313">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E313">
-        <v>0.86</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F313">
-        <v>0.14</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G313" t="b">
         <v>1</v>
       </c>
       <c r="H313">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="J313" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K313">
         <v>0.2676056338028169</v>
@@ -20406,25 +20406,25 @@
         <v>318</v>
       </c>
       <c r="B314">
-        <v>0.0091324200913242</v>
+        <v>0.008928571428571428</v>
       </c>
       <c r="C314">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D314">
-        <v>166</v>
+        <v>4</v>
       </c>
       <c r="E314">
-        <v>0.99</v>
+        <v>0.75</v>
       </c>
       <c r="F314">
-        <v>0.01000000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="G314" t="b">
         <v>1</v>
       </c>
       <c r="H314">
-        <v>217</v>
+        <v>111</v>
       </c>
       <c r="J314" s="1" t="s">
         <v>588</v>
@@ -20456,13 +20456,13 @@
         <v>319</v>
       </c>
       <c r="B315">
-        <v>0.008928571428571428</v>
+        <v>0.008547008547008548</v>
       </c>
       <c r="C315">
         <v>1</v>
       </c>
       <c r="D315">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E315">
         <v>0.9399999999999999</v>
@@ -20474,7 +20474,7 @@
         <v>1</v>
       </c>
       <c r="H315">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="J315" s="1" t="s">
         <v>589</v>
@@ -20506,28 +20506,28 @@
         <v>320</v>
       </c>
       <c r="B316">
-        <v>0.008928571428571428</v>
+        <v>0.008474576271186441</v>
       </c>
       <c r="C316">
         <v>1</v>
       </c>
       <c r="D316">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E316">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="F316">
-        <v>0.25</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G316" t="b">
         <v>1</v>
       </c>
       <c r="H316">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="J316" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K316">
         <v>0.2666666666666667</v>
@@ -20556,25 +20556,25 @@
         <v>321</v>
       </c>
       <c r="B317">
-        <v>0.008547008547008548</v>
+        <v>0.0078125</v>
       </c>
       <c r="C317">
         <v>1</v>
       </c>
       <c r="D317">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E317">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F317">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G317" t="b">
         <v>1</v>
       </c>
       <c r="H317">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="J317" s="1" t="s">
         <v>590</v>
@@ -20606,28 +20606,28 @@
         <v>322</v>
       </c>
       <c r="B318">
-        <v>0.008474576271186441</v>
+        <v>0.007633587786259542</v>
       </c>
       <c r="C318">
         <v>1</v>
       </c>
       <c r="D318">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E318">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="F318">
-        <v>0.07999999999999996</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G318" t="b">
         <v>1</v>
       </c>
       <c r="H318">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="J318" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K318">
         <v>0.2631578947368421</v>
@@ -20656,7 +20656,7 @@
         <v>323</v>
       </c>
       <c r="B319">
-        <v>0.0078125</v>
+        <v>0.007575757575757576</v>
       </c>
       <c r="C319">
         <v>1</v>
@@ -20674,7 +20674,7 @@
         <v>1</v>
       </c>
       <c r="H319">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="J319" s="1" t="s">
         <v>591</v>
@@ -20706,28 +20706,28 @@
         <v>324</v>
       </c>
       <c r="B320">
-        <v>0.007633587786259542</v>
+        <v>0.007376185458377239</v>
       </c>
       <c r="C320">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D320">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E320">
-        <v>0.97</v>
+        <v>0.73</v>
       </c>
       <c r="F320">
-        <v>0.03000000000000003</v>
+        <v>0.27</v>
       </c>
       <c r="G320" t="b">
         <v>1</v>
       </c>
       <c r="H320">
-        <v>130</v>
+        <v>942</v>
       </c>
       <c r="J320" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K320">
         <v>0.2608695652173913</v>
@@ -20756,25 +20756,25 @@
         <v>325</v>
       </c>
       <c r="B321">
-        <v>0.007575757575757576</v>
+        <v>0.006644518272425249</v>
       </c>
       <c r="C321">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D321">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="E321">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="F321">
-        <v>0.03000000000000003</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G321" t="b">
         <v>1</v>
       </c>
       <c r="H321">
-        <v>131</v>
+        <v>598</v>
       </c>
       <c r="J321" s="1" t="s">
         <v>592</v>
@@ -20806,25 +20806,25 @@
         <v>326</v>
       </c>
       <c r="B322">
-        <v>0.007376185458377239</v>
+        <v>0.006557377049180328</v>
       </c>
       <c r="C322">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D322">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="E322">
-        <v>0.73</v>
+        <v>0.96</v>
       </c>
       <c r="F322">
-        <v>0.27</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G322" t="b">
         <v>1</v>
       </c>
       <c r="H322">
-        <v>942</v>
+        <v>303</v>
       </c>
       <c r="J322" s="1" t="s">
         <v>593</v>
@@ -20856,25 +20856,25 @@
         <v>327</v>
       </c>
       <c r="B323">
-        <v>0.006644518272425249</v>
+        <v>0.006211180124223602</v>
       </c>
       <c r="C323">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D323">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E323">
-        <v>0.92</v>
+        <v>0.98</v>
       </c>
       <c r="F323">
-        <v>0.07999999999999996</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G323" t="b">
         <v>1</v>
       </c>
       <c r="H323">
-        <v>598</v>
+        <v>160</v>
       </c>
       <c r="J323" s="1" t="s">
         <v>594</v>
@@ -20906,25 +20906,25 @@
         <v>328</v>
       </c>
       <c r="B324">
-        <v>0.006557377049180328</v>
+        <v>0.006166495375128468</v>
       </c>
       <c r="C324">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D324">
-        <v>46</v>
+        <v>209</v>
       </c>
       <c r="E324">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F324">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G324" t="b">
         <v>1</v>
       </c>
       <c r="H324">
-        <v>303</v>
+        <v>1934</v>
       </c>
       <c r="J324" s="1" t="s">
         <v>595</v>
@@ -20956,28 +20956,28 @@
         <v>329</v>
       </c>
       <c r="B325">
-        <v>0.006211180124223602</v>
+        <v>0.006134969325153374</v>
       </c>
       <c r="C325">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D325">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="E325">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="F325">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G325" t="b">
         <v>1</v>
       </c>
       <c r="H325">
-        <v>160</v>
+        <v>810</v>
       </c>
       <c r="J325" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K325">
         <v>0.2523364485981308</v>
@@ -21006,25 +21006,25 @@
         <v>330</v>
       </c>
       <c r="B326">
-        <v>0.006166495375128468</v>
+        <v>0.006060606060606061</v>
       </c>
       <c r="C326">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D326">
-        <v>209</v>
+        <v>21</v>
       </c>
       <c r="E326">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F326">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G326" t="b">
         <v>1</v>
       </c>
       <c r="H326">
-        <v>1934</v>
+        <v>164</v>
       </c>
       <c r="J326" s="1" t="s">
         <v>596</v>
@@ -21056,25 +21056,25 @@
         <v>331</v>
       </c>
       <c r="B327">
-        <v>0.006134969325153374</v>
+        <v>0.005952380952380952</v>
       </c>
       <c r="C327">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D327">
-        <v>91</v>
+        <v>4</v>
       </c>
       <c r="E327">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="F327">
-        <v>0.05000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="G327" t="b">
         <v>1</v>
       </c>
       <c r="H327">
-        <v>810</v>
+        <v>167</v>
       </c>
       <c r="J327" s="1" t="s">
         <v>597</v>
@@ -21106,25 +21106,25 @@
         <v>332</v>
       </c>
       <c r="B328">
-        <v>0.006060606060606061</v>
+        <v>0.005509641873278237</v>
       </c>
       <c r="C328">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D328">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="E328">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F328">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G328" t="b">
         <v>1</v>
       </c>
       <c r="H328">
-        <v>164</v>
+        <v>361</v>
       </c>
       <c r="J328" s="1" t="s">
         <v>598</v>
@@ -21156,25 +21156,25 @@
         <v>333</v>
       </c>
       <c r="B329">
-        <v>0.005952380952380952</v>
+        <v>0.005319148936170213</v>
       </c>
       <c r="C329">
         <v>1</v>
       </c>
       <c r="D329">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="E329">
-        <v>0.75</v>
+        <v>0.96</v>
       </c>
       <c r="F329">
-        <v>0.25</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G329" t="b">
         <v>1</v>
       </c>
       <c r="H329">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="J329" s="1" t="s">
         <v>599</v>
@@ -21206,25 +21206,25 @@
         <v>334</v>
       </c>
       <c r="B330">
-        <v>0.005509641873278237</v>
+        <v>0.004784688995215311</v>
       </c>
       <c r="C330">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D330">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E330">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F330">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G330" t="b">
         <v>1</v>
       </c>
       <c r="H330">
-        <v>361</v>
+        <v>208</v>
       </c>
       <c r="J330" s="1" t="s">
         <v>600</v>
@@ -21256,28 +21256,28 @@
         <v>335</v>
       </c>
       <c r="B331">
-        <v>0.005319148936170213</v>
+        <v>0.003968253968253968</v>
       </c>
       <c r="C331">
         <v>1</v>
       </c>
       <c r="D331">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="E331">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F331">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G331" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H331">
-        <v>187</v>
+        <v>251</v>
       </c>
       <c r="J331" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K331">
         <v>0.25</v>
@@ -21306,25 +21306,25 @@
         <v>336</v>
       </c>
       <c r="B332">
-        <v>0.004784688995215311</v>
+        <v>0.003731343283582089</v>
       </c>
       <c r="C332">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D332">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="E332">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="F332">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G332" t="b">
         <v>1</v>
       </c>
       <c r="H332">
-        <v>208</v>
+        <v>801</v>
       </c>
       <c r="J332" s="1" t="s">
         <v>601</v>
@@ -21356,25 +21356,25 @@
         <v>337</v>
       </c>
       <c r="B333">
-        <v>0.003968253968253968</v>
+        <v>0.003636363636363636</v>
       </c>
       <c r="C333">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D333">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="E333">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F333">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G333" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H333">
-        <v>251</v>
+        <v>1096</v>
       </c>
       <c r="J333" s="1" t="s">
         <v>602</v>
@@ -21406,25 +21406,25 @@
         <v>338</v>
       </c>
       <c r="B334">
-        <v>0.003731343283582089</v>
+        <v>0.003460207612456748</v>
       </c>
       <c r="C334">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D334">
-        <v>66</v>
+        <v>5</v>
       </c>
       <c r="E334">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="F334">
-        <v>0.05000000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="G334" t="b">
         <v>1</v>
       </c>
       <c r="H334">
-        <v>801</v>
+        <v>288</v>
       </c>
       <c r="J334" s="1" t="s">
         <v>603</v>
@@ -21456,25 +21456,25 @@
         <v>339</v>
       </c>
       <c r="B335">
-        <v>0.003636363636363636</v>
+        <v>0.003448275862068965</v>
       </c>
       <c r="C335">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D335">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="E335">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F335">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G335" t="b">
         <v>1</v>
       </c>
       <c r="H335">
-        <v>1096</v>
+        <v>289</v>
       </c>
       <c r="J335" s="1" t="s">
         <v>111</v>
@@ -21506,25 +21506,25 @@
         <v>340</v>
       </c>
       <c r="B336">
-        <v>0.003460207612456748</v>
+        <v>0.003290556103981573</v>
       </c>
       <c r="C336">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D336">
-        <v>5</v>
+        <v>172</v>
       </c>
       <c r="E336">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F336">
-        <v>0.2</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G336" t="b">
         <v>1</v>
       </c>
       <c r="H336">
-        <v>288</v>
+        <v>3029</v>
       </c>
       <c r="J336" s="1" t="s">
         <v>604</v>
@@ -21556,13 +21556,13 @@
         <v>341</v>
       </c>
       <c r="B337">
-        <v>0.003448275862068965</v>
+        <v>0.003206270039187745</v>
       </c>
       <c r="C337">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D337">
-        <v>38</v>
+        <v>309</v>
       </c>
       <c r="E337">
         <v>0.97</v>
@@ -21574,7 +21574,7 @@
         <v>1</v>
       </c>
       <c r="H337">
-        <v>289</v>
+        <v>2798</v>
       </c>
       <c r="J337" s="1" t="s">
         <v>605</v>
@@ -21606,25 +21606,25 @@
         <v>342</v>
       </c>
       <c r="B338">
-        <v>0.003290556103981573</v>
+        <v>0.002515723270440251</v>
       </c>
       <c r="C338">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D338">
-        <v>172</v>
+        <v>101</v>
       </c>
       <c r="E338">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="F338">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G338" t="b">
         <v>1</v>
       </c>
       <c r="H338">
-        <v>3029</v>
+        <v>793</v>
       </c>
       <c r="J338" s="1" t="s">
         <v>606</v>
@@ -21656,25 +21656,25 @@
         <v>343</v>
       </c>
       <c r="B339">
-        <v>0.003206270039187745</v>
+        <v>0.001890359168241966</v>
       </c>
       <c r="C339">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D339">
-        <v>309</v>
+        <v>17</v>
       </c>
       <c r="E339">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F339">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G339" t="b">
         <v>1</v>
       </c>
       <c r="H339">
-        <v>2798</v>
+        <v>528</v>
       </c>
       <c r="J339" s="1" t="s">
         <v>607</v>
@@ -21706,25 +21706,25 @@
         <v>344</v>
       </c>
       <c r="B340">
-        <v>0.002515723270440251</v>
+        <v>0.001886792452830189</v>
       </c>
       <c r="C340">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D340">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="E340">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F340">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G340" t="b">
         <v>1</v>
       </c>
       <c r="H340">
-        <v>793</v>
+        <v>529</v>
       </c>
       <c r="J340" s="1" t="s">
         <v>608</v>
@@ -21752,30 +21752,6 @@
       </c>
     </row>
     <row r="341" spans="1:17">
-      <c r="A341" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B341">
-        <v>0.001890359168241966</v>
-      </c>
-      <c r="C341">
-        <v>1</v>
-      </c>
-      <c r="D341">
-        <v>17</v>
-      </c>
-      <c r="E341">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="F341">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="G341" t="b">
-        <v>1</v>
-      </c>
-      <c r="H341">
-        <v>528</v>
-      </c>
       <c r="J341" s="1" t="s">
         <v>81</v>
       </c>
@@ -21802,30 +21778,6 @@
       </c>
     </row>
     <row r="342" spans="1:17">
-      <c r="A342" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="B342">
-        <v>0.001886792452830189</v>
-      </c>
-      <c r="C342">
-        <v>1</v>
-      </c>
-      <c r="D342">
-        <v>38</v>
-      </c>
-      <c r="E342">
-        <v>0.97</v>
-      </c>
-      <c r="F342">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="G342" t="b">
-        <v>1</v>
-      </c>
-      <c r="H342">
-        <v>529</v>
-      </c>
       <c r="J342" s="1" t="s">
         <v>609</v>
       </c>
@@ -22347,7 +22299,7 @@
     </row>
     <row r="362" spans="10:17">
       <c r="J362" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K362">
         <v>0.2352941176470588</v>
@@ -22373,7 +22325,7 @@
     </row>
     <row r="363" spans="10:17">
       <c r="J363" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K363">
         <v>0.2352941176470588</v>
@@ -22607,7 +22559,7 @@
     </row>
     <row r="372" spans="10:17">
       <c r="J372" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K372">
         <v>0.2294685990338164</v>
@@ -23153,7 +23105,7 @@
     </row>
     <row r="393" spans="10:17">
       <c r="J393" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K393">
         <v>0.2222222222222222</v>
@@ -23491,7 +23443,7 @@
     </row>
     <row r="406" spans="10:17">
       <c r="J406" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K406">
         <v>0.2173913043478261</v>
@@ -23647,7 +23599,7 @@
     </row>
     <row r="412" spans="10:17">
       <c r="J412" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K412">
         <v>0.2142857142857143</v>
@@ -23777,7 +23729,7 @@
     </row>
     <row r="417" spans="10:17">
       <c r="J417" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K417">
         <v>0.2121212121212121</v>
@@ -24427,7 +24379,7 @@
     </row>
     <row r="442" spans="10:17">
       <c r="J442" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="K442">
         <v>0.1962025316455696</v>
@@ -24609,7 +24561,7 @@
     </row>
     <row r="449" spans="10:17">
       <c r="J449" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K449">
         <v>0.1923076923076923</v>
@@ -24635,7 +24587,7 @@
     </row>
     <row r="450" spans="10:17">
       <c r="J450" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K450">
         <v>0.191358024691358</v>
@@ -24687,7 +24639,7 @@
     </row>
     <row r="452" spans="10:17">
       <c r="J452" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K452">
         <v>0.1904761904761905</v>
@@ -24817,7 +24769,7 @@
     </row>
     <row r="457" spans="10:17">
       <c r="J457" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K457">
         <v>0.1846153846153846</v>
@@ -24869,7 +24821,7 @@
     </row>
     <row r="459" spans="10:17">
       <c r="J459" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K459">
         <v>0.1830985915492958</v>
@@ -24947,7 +24899,7 @@
     </row>
     <row r="462" spans="10:17">
       <c r="J462" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K462">
         <v>0.1818181818181818</v>
@@ -25025,7 +24977,7 @@
     </row>
     <row r="465" spans="10:17">
       <c r="J465" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K465">
         <v>0.1818181818181818</v>
@@ -25363,7 +25315,7 @@
     </row>
     <row r="478" spans="10:17">
       <c r="J478" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K478">
         <v>0.1774193548387097</v>
@@ -25389,7 +25341,7 @@
     </row>
     <row r="479" spans="10:17">
       <c r="J479" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="K479">
         <v>0.1772151898734177</v>
@@ -25597,7 +25549,7 @@
     </row>
     <row r="487" spans="10:17">
       <c r="J487" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K487">
         <v>0.1702127659574468</v>
@@ -25935,7 +25887,7 @@
     </row>
     <row r="500" spans="10:17">
       <c r="J500" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K500">
         <v>0.1666666666666667</v>
@@ -26793,7 +26745,7 @@
     </row>
     <row r="533" spans="10:17">
       <c r="J533" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K533">
         <v>0.1666666666666667</v>
@@ -27443,7 +27395,7 @@
     </row>
     <row r="558" spans="10:17">
       <c r="J558" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K558">
         <v>0.1578947368421053</v>
@@ -27651,7 +27603,7 @@
     </row>
     <row r="566" spans="10:17">
       <c r="J566" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K566">
         <v>0.1538461538461539</v>
@@ -27963,7 +27915,7 @@
     </row>
     <row r="578" spans="10:17">
       <c r="J578" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K578">
         <v>0.1515151515151515</v>
@@ -28119,7 +28071,7 @@
     </row>
     <row r="584" spans="10:17">
       <c r="J584" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K584">
         <v>0.1452991452991453</v>
@@ -28145,7 +28097,7 @@
     </row>
     <row r="585" spans="10:17">
       <c r="J585" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K585">
         <v>0.1441441441441441</v>
@@ -28509,7 +28461,7 @@
     </row>
     <row r="599" spans="10:17">
       <c r="J599" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K599">
         <v>0.1428571428571428</v>
@@ -28561,7 +28513,7 @@
     </row>
     <row r="601" spans="10:17">
       <c r="J601" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K601">
         <v>0.1428571428571428</v>
@@ -28769,7 +28721,7 @@
     </row>
     <row r="609" spans="10:17">
       <c r="J609" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K609">
         <v>0.1428571428571428</v>
@@ -29991,7 +29943,7 @@
     </row>
     <row r="656" spans="10:17">
       <c r="J656" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K656">
         <v>0.1363636363636364</v>
@@ -30017,7 +29969,7 @@
     </row>
     <row r="657" spans="10:17">
       <c r="J657" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K657">
         <v>0.1363636363636364</v>
@@ -30043,7 +29995,7 @@
     </row>
     <row r="658" spans="10:17">
       <c r="J658" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K658">
         <v>0.1363636363636364</v>
@@ -30355,7 +30307,7 @@
     </row>
     <row r="670" spans="10:17">
       <c r="J670" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K670">
         <v>0.1333333333333333</v>
@@ -30537,7 +30489,7 @@
     </row>
     <row r="677" spans="10:17">
       <c r="J677" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K677">
         <v>0.1304347826086956</v>
@@ -30589,7 +30541,7 @@
     </row>
     <row r="679" spans="10:17">
       <c r="J679" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K679">
         <v>0.1280193236714976</v>
@@ -30615,7 +30567,7 @@
     </row>
     <row r="680" spans="10:17">
       <c r="J680" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K680">
         <v>0.1278195488721804</v>
@@ -30641,7 +30593,7 @@
     </row>
     <row r="681" spans="10:17">
       <c r="J681" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="K681">
         <v>0.1268011527377522</v>
@@ -30667,7 +30619,7 @@
     </row>
     <row r="682" spans="10:17">
       <c r="J682" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K682">
         <v>0.1261682242990654</v>
@@ -30927,7 +30879,7 @@
     </row>
     <row r="692" spans="10:17">
       <c r="J692" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K692">
         <v>0.125</v>
@@ -31889,7 +31841,7 @@
     </row>
     <row r="729" spans="10:17">
       <c r="J729" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K729">
         <v>0.125</v>
@@ -32305,7 +32257,7 @@
     </row>
     <row r="745" spans="10:17">
       <c r="J745" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K745">
         <v>0.1206896551724138</v>
@@ -32487,7 +32439,7 @@
     </row>
     <row r="752" spans="10:17">
       <c r="J752" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K752">
         <v>0.119047619047619</v>
@@ -32539,7 +32491,7 @@
     </row>
     <row r="754" spans="10:17">
       <c r="J754" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K754">
         <v>0.1186440677966102</v>
@@ -32773,7 +32725,7 @@
     </row>
     <row r="763" spans="10:17">
       <c r="J763" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="K763">
         <v>0.1171171171171171</v>
@@ -32851,7 +32803,7 @@
     </row>
     <row r="766" spans="10:17">
       <c r="J766" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K766">
         <v>0.1157894736842105</v>
@@ -32877,7 +32829,7 @@
     </row>
     <row r="767" spans="10:17">
       <c r="J767" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K767">
         <v>0.1153846153846154</v>
@@ -32955,7 +32907,7 @@
     </row>
     <row r="770" spans="10:17">
       <c r="J770" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="K770">
         <v>0.1134969325153374</v>
@@ -33657,7 +33609,7 @@
     </row>
     <row r="797" spans="10:17">
       <c r="J797" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K797">
         <v>0.1111111111111111</v>
@@ -33943,7 +33895,7 @@
     </row>
     <row r="808" spans="10:17">
       <c r="J808" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K808">
         <v>0.1111111111111111</v>
@@ -34073,7 +34025,7 @@
     </row>
     <row r="813" spans="10:17">
       <c r="J813" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K813">
         <v>0.1109865470852018</v>
@@ -34125,7 +34077,7 @@
     </row>
     <row r="815" spans="10:17">
       <c r="J815" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="K815">
         <v>0.108695652173913</v>
@@ -34385,7 +34337,7 @@
     </row>
     <row r="825" spans="10:17">
       <c r="J825" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K825">
         <v>0.1052631578947368</v>
@@ -34775,7 +34727,7 @@
     </row>
     <row r="840" spans="10:17">
       <c r="J840" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K840">
         <v>0.101010101010101</v>
@@ -34827,7 +34779,7 @@
     </row>
     <row r="842" spans="10:17">
       <c r="J842" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K842">
         <v>0.1</v>
@@ -35685,7 +35637,7 @@
     </row>
     <row r="875" spans="10:17">
       <c r="J875" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K875">
         <v>0.09859154929577464</v>
@@ -35763,7 +35715,7 @@
     </row>
     <row r="878" spans="10:17">
       <c r="J878" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K878">
         <v>0.09683666881859264</v>
@@ -35789,7 +35741,7 @@
     </row>
     <row r="879" spans="10:17">
       <c r="J879" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K879">
         <v>0.09677419354838709</v>
@@ -35815,7 +35767,7 @@
     </row>
     <row r="880" spans="10:17">
       <c r="J880" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K880">
         <v>0.09598214285714286</v>
@@ -36023,7 +35975,7 @@
     </row>
     <row r="888" spans="10:17">
       <c r="J888" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K888">
         <v>0.09259259259259259</v>
@@ -36049,7 +36001,7 @@
     </row>
     <row r="889" spans="10:17">
       <c r="J889" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="K889">
         <v>0.09244486156733928</v>
@@ -36101,7 +36053,7 @@
     </row>
     <row r="891" spans="10:17">
       <c r="J891" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K891">
         <v>0.09230769230769231</v>
@@ -36231,7 +36183,7 @@
     </row>
     <row r="896" spans="10:17">
       <c r="J896" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K896">
         <v>0.09090909090909091</v>
@@ -36309,7 +36261,7 @@
     </row>
     <row r="899" spans="10:17">
       <c r="J899" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K899">
         <v>0.09090909090909091</v>
@@ -36491,7 +36443,7 @@
     </row>
     <row r="906" spans="10:17">
       <c r="J906" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K906">
         <v>0.09090909090909091</v>
@@ -37141,7 +37093,7 @@
     </row>
     <row r="931" spans="10:17">
       <c r="J931" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K931">
         <v>0.08928571428571429</v>
@@ -37167,7 +37119,7 @@
     </row>
     <row r="932" spans="10:17">
       <c r="J932" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K932">
         <v>0.08860759493670886</v>
@@ -37193,7 +37145,7 @@
     </row>
     <row r="933" spans="10:17">
       <c r="J933" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K933">
         <v>0.08823529411764706</v>
@@ -37349,7 +37301,7 @@
     </row>
     <row r="939" spans="10:17">
       <c r="J939" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K939">
         <v>0.0859375</v>
@@ -37479,7 +37431,7 @@
     </row>
     <row r="944" spans="10:17">
       <c r="J944" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K944">
         <v>0.08333333333333333</v>
@@ -37791,7 +37743,7 @@
     </row>
     <row r="956" spans="10:17">
       <c r="J956" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K956">
         <v>0.08333333333333333</v>
@@ -37999,7 +37951,7 @@
     </row>
     <row r="964" spans="10:17">
       <c r="J964" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K964">
         <v>0.08333333333333333</v>
@@ -38129,7 +38081,7 @@
     </row>
     <row r="969" spans="10:17">
       <c r="J969" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K969">
         <v>0.08163265306122448</v>
@@ -38233,7 +38185,7 @@
     </row>
     <row r="973" spans="10:17">
       <c r="J973" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K973">
         <v>0.08064516129032258</v>
@@ -38363,7 +38315,7 @@
     </row>
     <row r="978" spans="10:17">
       <c r="J978" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K978">
         <v>0.08</v>
@@ -38649,7 +38601,7 @@
     </row>
     <row r="989" spans="10:17">
       <c r="J989" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K989">
         <v>0.07692307692307693</v>
@@ -38675,7 +38627,7 @@
     </row>
     <row r="990" spans="10:17">
       <c r="J990" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K990">
         <v>0.07692307692307693</v>
@@ -38779,7 +38731,7 @@
     </row>
     <row r="994" spans="10:17">
       <c r="J994" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K994">
         <v>0.07692307692307693</v>
@@ -39091,7 +39043,7 @@
     </row>
     <row r="1006" spans="10:17">
       <c r="J1006" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="K1006">
         <v>0.07430340557275542</v>
@@ -39117,7 +39069,7 @@
     </row>
     <row r="1007" spans="10:17">
       <c r="J1007" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K1007">
         <v>0.07407407407407407</v>
@@ -39299,7 +39251,7 @@
     </row>
     <row r="1014" spans="10:17">
       <c r="J1014" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="K1014">
         <v>0.07291666666666667</v>
@@ -39351,7 +39303,7 @@
     </row>
     <row r="1016" spans="10:17">
       <c r="J1016" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K1016">
         <v>0.07142857142857142</v>
@@ -39793,7 +39745,7 @@
     </row>
     <row r="1033" spans="10:17">
       <c r="J1033" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K1033">
         <v>0.07142857142857142</v>
@@ -40053,7 +40005,7 @@
     </row>
     <row r="1043" spans="10:17">
       <c r="J1043" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K1043">
         <v>0.06896551724137931</v>
@@ -40131,7 +40083,7 @@
     </row>
     <row r="1046" spans="10:17">
       <c r="J1046" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K1046">
         <v>0.06818181818181818</v>
@@ -40235,7 +40187,7 @@
     </row>
     <row r="1050" spans="10:17">
       <c r="J1050" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K1050">
         <v>0.06666666666666667</v>
@@ -40443,7 +40395,7 @@
     </row>
     <row r="1058" spans="10:17">
       <c r="J1058" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K1058">
         <v>0.06666666666666667</v>
@@ -40521,7 +40473,7 @@
     </row>
     <row r="1061" spans="10:17">
       <c r="J1061" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K1061">
         <v>0.06666666666666667</v>
@@ -40729,7 +40681,7 @@
     </row>
     <row r="1069" spans="10:17">
       <c r="J1069" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K1069">
         <v>0.06666666666666667</v>
@@ -40807,7 +40759,7 @@
     </row>
     <row r="1072" spans="10:17">
       <c r="J1072" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="K1072">
         <v>0.06537102473498234</v>
@@ -40859,7 +40811,7 @@
     </row>
     <row r="1074" spans="10:17">
       <c r="J1074" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K1074">
         <v>0.06521739130434782</v>
@@ -40963,7 +40915,7 @@
     </row>
     <row r="1078" spans="10:17">
       <c r="J1078" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K1078">
         <v>0.06451612903225806</v>
@@ -41899,7 +41851,7 @@
     </row>
     <row r="1114" spans="10:17">
       <c r="J1114" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K1114">
         <v>0.06024096385542169</v>
@@ -42757,7 +42709,7 @@
     </row>
     <row r="1147" spans="10:17">
       <c r="J1147" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K1147">
         <v>0.05494505494505494</v>
@@ -42939,7 +42891,7 @@
     </row>
     <row r="1154" spans="10:17">
       <c r="J1154" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K1154">
         <v>0.05272255834053587</v>
@@ -43017,7 +42969,7 @@
     </row>
     <row r="1157" spans="10:17">
       <c r="J1157" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K1157">
         <v>0.05263157894736842</v>
@@ -43277,7 +43229,7 @@
     </row>
     <row r="1167" spans="10:17">
       <c r="J1167" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K1167">
         <v>0.05263157894736842</v>
@@ -43511,7 +43463,7 @@
     </row>
     <row r="1176" spans="10:17">
       <c r="J1176" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K1176">
         <v>0.05208333333333334</v>
@@ -43537,7 +43489,7 @@
     </row>
     <row r="1177" spans="10:17">
       <c r="J1177" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K1177">
         <v>0.05128205128205128</v>
@@ -43615,7 +43567,7 @@
     </row>
     <row r="1180" spans="10:17">
       <c r="J1180" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K1180">
         <v>0.05076778439360702</v>
@@ -43745,7 +43697,7 @@
     </row>
     <row r="1185" spans="10:17">
       <c r="J1185" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K1185">
         <v>0.05</v>
@@ -44291,7 +44243,7 @@
     </row>
     <row r="1206" spans="10:17">
       <c r="J1206" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K1206">
         <v>0.04545454545454546</v>
@@ -44369,7 +44321,7 @@
     </row>
     <row r="1209" spans="10:17">
       <c r="J1209" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K1209">
         <v>0.04347826086956522</v>
@@ -44837,7 +44789,7 @@
     </row>
     <row r="1227" spans="10:17">
       <c r="J1227" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K1227">
         <v>0.04</v>
@@ -45331,7 +45283,7 @@
     </row>
     <row r="1246" spans="10:17">
       <c r="J1246" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K1246">
         <v>0.03571428571428571</v>
@@ -45591,7 +45543,7 @@
     </row>
     <row r="1256" spans="10:17">
       <c r="J1256" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K1256">
         <v>0.03076923076923077</v>
@@ -45669,7 +45621,7 @@
     </row>
     <row r="1259" spans="10:17">
       <c r="J1259" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="K1259">
         <v>0.02941176470588235</v>
@@ -45695,7 +45647,7 @@
     </row>
     <row r="1260" spans="10:17">
       <c r="J1260" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K1260">
         <v>0.02941176470588235</v>
@@ -45773,7 +45725,7 @@
     </row>
     <row r="1263" spans="10:17">
       <c r="J1263" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K1263">
         <v>0.02941176470588235</v>
@@ -46111,7 +46063,7 @@
     </row>
     <row r="1276" spans="10:17">
       <c r="J1276" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="K1276">
         <v>0.02631578947368421</v>
@@ -46189,7 +46141,7 @@
     </row>
     <row r="1279" spans="10:17">
       <c r="J1279" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K1279">
         <v>0.02631578947368421</v>
@@ -46423,7 +46375,7 @@
     </row>
     <row r="1288" spans="10:17">
       <c r="J1288" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K1288">
         <v>0.02439024390243903</v>
@@ -46657,7 +46609,7 @@
     </row>
     <row r="1297" spans="10:17">
       <c r="J1297" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K1297">
         <v>0.02272727272727273</v>
@@ -46839,7 +46791,7 @@
     </row>
     <row r="1304" spans="10:17">
       <c r="J1304" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K1304">
         <v>0.02127659574468085</v>
@@ -46995,7 +46947,7 @@
     </row>
     <row r="1310" spans="10:17">
       <c r="J1310" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="K1310">
         <v>0.01977107180020812</v>
@@ -47125,7 +47077,7 @@
     </row>
     <row r="1315" spans="10:17">
       <c r="J1315" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K1315">
         <v>0.01764705882352941</v>
@@ -47151,7 +47103,7 @@
     </row>
     <row r="1316" spans="10:17">
       <c r="J1316" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K1316">
         <v>0.01724137931034483</v>
@@ -47255,7 +47207,7 @@
     </row>
     <row r="1320" spans="10:17">
       <c r="J1320" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K1320">
         <v>0.0136986301369863</v>
